--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>411572.0957702807</v>
+        <v>410755.1311473896</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2697326.675426124</v>
+        <v>2697326.675426123</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736541</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11.94294668035388</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>11.94294668035388</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,40 +1230,40 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>10.5193474360557</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>308.7593099586186</v>
+        <v>308.7593099586189</v>
       </c>
       <c r="C11" t="n">
-        <v>296.7706269163003</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.7519309608286</v>
       </c>
       <c r="E11" t="n">
-        <v>309.4940685307338</v>
+        <v>309.4940685307342</v>
       </c>
       <c r="F11" t="n">
-        <v>328.6658846187109</v>
+        <v>328.6658846187113</v>
       </c>
       <c r="G11" t="n">
-        <v>330.081148846314</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>242.8442624109053</v>
+        <v>242.8442624109056</v>
       </c>
       <c r="I11" t="n">
-        <v>69.77489615835822</v>
+        <v>69.7748961583586</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.20888282571906</v>
+        <v>92.20888282571944</v>
       </c>
       <c r="T11" t="n">
-        <v>138.504001577444</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>170.9512484653403</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>223.2164769721823</v>
       </c>
       <c r="W11" t="n">
-        <v>194.129665735048</v>
+        <v>277.565786676755</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.2626427056999</v>
+        <v>308.2626427057003</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.3760208333156</v>
+        <v>100.376020833316</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>86.5760156787165</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>70.19738007629489</v>
       </c>
       <c r="E13" t="n">
-        <v>69.14512993207396</v>
+        <v>69.14512993207434</v>
       </c>
       <c r="F13" t="n">
-        <v>69.61205426026027</v>
+        <v>69.61205426026065</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>85.65439836824072</v>
       </c>
       <c r="H13" t="n">
-        <v>74.36924529635598</v>
+        <v>74.36924529635637</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.23508121011798</v>
+        <v>56.23508121011837</v>
       </c>
       <c r="S13" t="n">
-        <v>126.1794938804379</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>148.5105645038684</v>
       </c>
       <c r="U13" t="n">
-        <v>202.961868845387</v>
+        <v>202.9618688453874</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7841572329412</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>201.9510433035545</v>
+        <v>201.9510433035549</v>
       </c>
       <c r="X13" t="n">
-        <v>78.55562139174906</v>
+        <v>129.0519269334271</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.4710130554253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>248.3521486696523</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>296.7706269163003</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>287.7519309608282</v>
+        <v>287.7519309608286</v>
       </c>
       <c r="E14" t="n">
-        <v>309.4940685307338</v>
+        <v>309.4940685307342</v>
       </c>
       <c r="F14" t="n">
-        <v>328.6658846187109</v>
+        <v>328.6658846187113</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>330.0811488463144</v>
       </c>
       <c r="H14" t="n">
-        <v>242.8442624109052</v>
+        <v>242.8442624109056</v>
       </c>
       <c r="I14" t="n">
-        <v>69.77489615835819</v>
+        <v>69.7748961583586</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.20888282571903</v>
+        <v>92.20888282571944</v>
       </c>
       <c r="T14" t="n">
-        <v>138.504001577444</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>120.5801993510298</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>252.265687198798</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>277.565786676755</v>
       </c>
       <c r="X14" t="n">
-        <v>296.8660449095012</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>308.2626427056999</v>
+        <v>308.2626427057003</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.3760208333156</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>86.57601567871609</v>
+        <v>86.5760156787165</v>
       </c>
       <c r="D16" t="n">
-        <v>70.19738007629448</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9.375346231806869</v>
       </c>
       <c r="G16" t="n">
-        <v>59.0624411266591</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.4295625798498</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.23508121011795</v>
+        <v>56.23508121011837</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>126.1794938804382</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>148.5105645038684</v>
       </c>
       <c r="U16" t="n">
-        <v>202.961868845387</v>
+        <v>202.9618688453874</v>
       </c>
       <c r="V16" t="n">
-        <v>176.7841572329412</v>
+        <v>176.7841572329416</v>
       </c>
       <c r="W16" t="n">
-        <v>201.9510433035545</v>
+        <v>201.9510433035549</v>
       </c>
       <c r="X16" t="n">
-        <v>147.5961452993576</v>
+        <v>147.596145299358</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4710130554253</v>
+        <v>138.4710130554257</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.24487308873231</v>
+        <v>19.2448730887341</v>
       </c>
       <c r="T17" t="n">
-        <v>65.53999184045604</v>
+        <v>65.53999184045728</v>
       </c>
       <c r="U17" t="n">
         <v>97.98723872835319</v>
@@ -2053,7 +2053,7 @@
         <v>53.21548414345112</v>
       </c>
       <c r="T19" t="n">
-        <v>106.0567104646344</v>
+        <v>75.54655476688124</v>
       </c>
       <c r="U19" t="n">
         <v>129.9978591084003</v>
@@ -2065,7 +2065,7 @@
         <v>128.9870335665677</v>
       </c>
       <c r="X19" t="n">
-        <v>74.63213556237085</v>
+        <v>105.142291260124</v>
       </c>
       <c r="Y19" t="n">
         <v>65.50700331843854</v>
@@ -2135,7 +2135,7 @@
         <v>65.53999184045728</v>
       </c>
       <c r="U20" t="n">
-        <v>97.9872387283523</v>
+        <v>97.98723872835319</v>
       </c>
       <c r="V20" t="n">
         <v>179.3016774618109</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.5101556977531</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.69510258984301</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.81505310791012</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>53.21548414345112</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>235.7953002216318</v>
+        <v>235.7953002216317</v>
       </c>
       <c r="C23" t="n">
         <v>223.8066171793135</v>
       </c>
       <c r="D23" t="n">
-        <v>214.7879212238415</v>
+        <v>214.7879212238414</v>
       </c>
       <c r="E23" t="n">
         <v>236.530058793747</v>
       </c>
       <c r="F23" t="n">
-        <v>255.7018748817242</v>
+        <v>255.7018748817241</v>
       </c>
       <c r="G23" t="n">
         <v>257.1171391093272</v>
       </c>
       <c r="H23" t="n">
-        <v>169.8802526739185</v>
+        <v>169.8802526739184</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.24487308873228</v>
+        <v>19.24487308873222</v>
       </c>
       <c r="T23" t="n">
-        <v>65.53999184045725</v>
+        <v>65.53999184045719</v>
       </c>
       <c r="U23" t="n">
-        <v>97.98723872835316</v>
+        <v>97.98723872835311</v>
       </c>
       <c r="V23" t="n">
-        <v>179.3016774618109</v>
+        <v>179.3016774618108</v>
       </c>
       <c r="W23" t="n">
-        <v>204.6017769397678</v>
+        <v>204.6017769397677</v>
       </c>
       <c r="X23" t="n">
         <v>223.9020351725144</v>
       </c>
       <c r="Y23" t="n">
-        <v>235.2986329687132</v>
+        <v>235.2986329687131</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.41201109632885</v>
+        <v>27.4120110963288</v>
       </c>
       <c r="C25" t="n">
-        <v>13.61200594172934</v>
+        <v>13.61200594172928</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.69038863125355</v>
+        <v>43.20054432900761</v>
       </c>
       <c r="H25" t="n">
-        <v>1.4052355593692</v>
+        <v>1.405235559369143</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.51015569775337</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.21548414345109</v>
+        <v>53.21548414345104</v>
       </c>
       <c r="T25" t="n">
-        <v>75.54655476688121</v>
+        <v>75.54655476688116</v>
       </c>
       <c r="U25" t="n">
         <v>129.9978591084002</v>
@@ -2536,13 +2536,13 @@
         <v>103.8201474959544</v>
       </c>
       <c r="W25" t="n">
-        <v>128.9870335665677</v>
+        <v>128.9870335665676</v>
       </c>
       <c r="X25" t="n">
-        <v>74.63213556237082</v>
+        <v>74.63213556237076</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.50700331843851</v>
+        <v>65.50700331843845</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.1824985632552</v>
+        <v>287.1824985632553</v>
       </c>
       <c r="C26" t="n">
-        <v>275.1938155209369</v>
+        <v>275.193815520937</v>
       </c>
       <c r="D26" t="n">
-        <v>266.1751195654649</v>
+        <v>266.175119565465</v>
       </c>
       <c r="E26" t="n">
         <v>287.9172571353705</v>
@@ -2570,10 +2570,10 @@
         <v>308.5043374509507</v>
       </c>
       <c r="H26" t="n">
-        <v>221.2674510155419</v>
+        <v>221.267451015542</v>
       </c>
       <c r="I26" t="n">
-        <v>48.19808476299485</v>
+        <v>48.19808476299492</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.63207143035572</v>
+        <v>70.63207143035577</v>
       </c>
       <c r="T26" t="n">
         <v>116.9271901820807</v>
@@ -2612,10 +2612,10 @@
         <v>149.3744370699766</v>
       </c>
       <c r="V26" t="n">
-        <v>230.6888758034343</v>
+        <v>230.6888758034344</v>
       </c>
       <c r="W26" t="n">
-        <v>255.9889752813912</v>
+        <v>255.9889752813913</v>
       </c>
       <c r="X26" t="n">
         <v>275.2892335141379</v>
@@ -2652,7 +2652,7 @@
         <v>96.26173156618012</v>
       </c>
       <c r="I27" t="n">
-        <v>58.15601631523095</v>
+        <v>58.15601631523096</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.97841760700849</v>
+        <v>41.9784176070085</v>
       </c>
       <c r="S27" t="n">
         <v>146.1234335938568</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.7992094379523</v>
+        <v>78.79920943795234</v>
       </c>
       <c r="C28" t="n">
-        <v>64.99920428335278</v>
+        <v>64.99920428335282</v>
       </c>
       <c r="D28" t="n">
-        <v>48.62056868093117</v>
+        <v>48.62056868093121</v>
       </c>
       <c r="E28" t="n">
-        <v>47.56831853671062</v>
+        <v>47.56831853671066</v>
       </c>
       <c r="F28" t="n">
-        <v>48.03524286489693</v>
+        <v>48.03524286489697</v>
       </c>
       <c r="G28" t="n">
-        <v>64.07758697287699</v>
+        <v>64.07758697287704</v>
       </c>
       <c r="H28" t="n">
-        <v>52.79243390099264</v>
+        <v>52.79243390099269</v>
       </c>
       <c r="I28" t="n">
-        <v>32.85275118448649</v>
+        <v>32.85275118448654</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65826981475464</v>
+        <v>34.65826981475469</v>
       </c>
       <c r="S28" t="n">
-        <v>104.6026824850745</v>
+        <v>104.6026824850746</v>
       </c>
       <c r="T28" t="n">
         <v>126.9337531085047</v>
@@ -2773,7 +2773,7 @@
         <v>155.2073458375779</v>
       </c>
       <c r="W28" t="n">
-        <v>180.3742319081911</v>
+        <v>180.3742319081912</v>
       </c>
       <c r="X28" t="n">
         <v>126.0193339039943</v>
@@ -2792,7 +2792,7 @@
         <v>287.1824985632553</v>
       </c>
       <c r="C29" t="n">
-        <v>275.1938155209371</v>
+        <v>275.193815520937</v>
       </c>
       <c r="D29" t="n">
         <v>266.175119565465</v>
@@ -2807,10 +2807,10 @@
         <v>308.5043374509507</v>
       </c>
       <c r="H29" t="n">
-        <v>221.267451015542</v>
+        <v>221.2674510155419</v>
       </c>
       <c r="I29" t="n">
-        <v>48.19808476299494</v>
+        <v>48.1980847629949</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.63207143035578</v>
+        <v>70.63207143035575</v>
       </c>
       <c r="T29" t="n">
         <v>116.9271901820807</v>
       </c>
       <c r="U29" t="n">
-        <v>149.3744370699767</v>
+        <v>149.3744370699766</v>
       </c>
       <c r="V29" t="n">
         <v>230.6888758034344</v>
@@ -2889,7 +2889,7 @@
         <v>96.26173156618012</v>
       </c>
       <c r="I30" t="n">
-        <v>58.15601631523096</v>
+        <v>58.15601631523095</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.9784176070085</v>
+        <v>41.97841760700849</v>
       </c>
       <c r="S30" t="n">
         <v>146.1234335938568</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.79920943795236</v>
+        <v>78.79920943795234</v>
       </c>
       <c r="C31" t="n">
-        <v>64.99920428335284</v>
+        <v>64.99920428335282</v>
       </c>
       <c r="D31" t="n">
-        <v>48.62056868093123</v>
+        <v>48.62056868093121</v>
       </c>
       <c r="E31" t="n">
-        <v>47.56831853671068</v>
+        <v>47.56831853671066</v>
       </c>
       <c r="F31" t="n">
-        <v>48.03524286489699</v>
+        <v>48.03524286489697</v>
       </c>
       <c r="G31" t="n">
-        <v>64.07758697287704</v>
+        <v>64.07758697287703</v>
       </c>
       <c r="H31" t="n">
-        <v>52.79243390099271</v>
+        <v>52.79243390099268</v>
       </c>
       <c r="I31" t="n">
-        <v>32.85275118448655</v>
+        <v>32.85275118448653</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.6582698147547</v>
+        <v>34.65826981475468</v>
       </c>
       <c r="S31" t="n">
         <v>104.6026824850746</v>
@@ -3004,7 +3004,7 @@
         <v>126.9337531085047</v>
       </c>
       <c r="U31" t="n">
-        <v>181.3850574500238</v>
+        <v>181.3850574500237</v>
       </c>
       <c r="V31" t="n">
         <v>155.2073458375779</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.0926193981141</v>
+        <v>284.0926193981143</v>
       </c>
       <c r="C32" t="n">
-        <v>272.1039363557958</v>
+        <v>272.103936355796</v>
       </c>
       <c r="D32" t="n">
-        <v>263.0852404003238</v>
+        <v>263.085240400324</v>
       </c>
       <c r="E32" t="n">
-        <v>284.8273779702293</v>
+        <v>284.8273779702295</v>
       </c>
       <c r="F32" t="n">
-        <v>303.9991940582065</v>
+        <v>303.9991940582067</v>
       </c>
       <c r="G32" t="n">
-        <v>305.4144582858096</v>
+        <v>305.4144582858098</v>
       </c>
       <c r="H32" t="n">
-        <v>218.1775718504008</v>
+        <v>218.177571850401</v>
       </c>
       <c r="I32" t="n">
-        <v>45.10820559785374</v>
+        <v>45.10820559785391</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.54219226521458</v>
+        <v>67.54219226521475</v>
       </c>
       <c r="T32" t="n">
-        <v>113.8373110169396</v>
+        <v>113.8373110169397</v>
       </c>
       <c r="U32" t="n">
-        <v>146.2845579048355</v>
+        <v>146.2845579048357</v>
       </c>
       <c r="V32" t="n">
-        <v>227.5989966382932</v>
+        <v>227.5989966382934</v>
       </c>
       <c r="W32" t="n">
-        <v>252.8990961162501</v>
+        <v>252.8990961162503</v>
       </c>
       <c r="X32" t="n">
-        <v>272.1993543489967</v>
+        <v>272.1993543489969</v>
       </c>
       <c r="Y32" t="n">
-        <v>283.5959521451955</v>
+        <v>283.5959521451957</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.70933027281116</v>
+        <v>75.70933027281133</v>
       </c>
       <c r="C34" t="n">
-        <v>61.90932511821164</v>
+        <v>61.90932511821181</v>
       </c>
       <c r="D34" t="n">
-        <v>45.53068951579003</v>
+        <v>45.5306895157902</v>
       </c>
       <c r="E34" t="n">
-        <v>44.47843937156948</v>
+        <v>44.47843937156965</v>
       </c>
       <c r="F34" t="n">
-        <v>44.94536369975579</v>
+        <v>44.94536369975596</v>
       </c>
       <c r="G34" t="n">
-        <v>60.98770780773585</v>
+        <v>60.98770780773602</v>
       </c>
       <c r="H34" t="n">
-        <v>49.70255473585151</v>
+        <v>49.70255473585168</v>
       </c>
       <c r="I34" t="n">
-        <v>29.76287201934535</v>
+        <v>29.76287201934552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.56839064961351</v>
+        <v>31.56839064961368</v>
       </c>
       <c r="S34" t="n">
-        <v>101.5128033199334</v>
+        <v>101.5128033199336</v>
       </c>
       <c r="T34" t="n">
-        <v>123.8438739433635</v>
+        <v>123.8438739433637</v>
       </c>
       <c r="U34" t="n">
-        <v>178.2951782848826</v>
+        <v>178.2951782848827</v>
       </c>
       <c r="V34" t="n">
-        <v>152.1174666724368</v>
+        <v>152.1174666724369</v>
       </c>
       <c r="W34" t="n">
-        <v>177.28435274305</v>
+        <v>177.2843527430502</v>
       </c>
       <c r="X34" t="n">
-        <v>122.9294547388531</v>
+        <v>122.9294547388533</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.8043224949208</v>
+        <v>113.804322494921</v>
       </c>
     </row>
     <row r="35">
@@ -3478,7 +3478,7 @@
         <v>75.54655476688121</v>
       </c>
       <c r="U37" t="n">
-        <v>160.5080148061537</v>
+        <v>129.9978591084002</v>
       </c>
       <c r="V37" t="n">
         <v>103.8201474959544</v>
@@ -3487,7 +3487,7 @@
         <v>128.9870335665677</v>
       </c>
       <c r="X37" t="n">
-        <v>74.63213556237082</v>
+        <v>105.1422912601242</v>
       </c>
       <c r="Y37" t="n">
         <v>65.50700331843851</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.7953002216318</v>
+        <v>235.7953002216317</v>
       </c>
       <c r="C38" t="n">
         <v>223.8066171793135</v>
       </c>
       <c r="D38" t="n">
-        <v>214.7879212238415</v>
+        <v>214.7879212238414</v>
       </c>
       <c r="E38" t="n">
         <v>236.530058793747</v>
       </c>
       <c r="F38" t="n">
-        <v>255.7018748817242</v>
+        <v>255.7018748817241</v>
       </c>
       <c r="G38" t="n">
         <v>257.1171391093272</v>
       </c>
       <c r="H38" t="n">
-        <v>169.8802526739185</v>
+        <v>169.8802526739184</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.24487308873228</v>
+        <v>19.24487308873222</v>
       </c>
       <c r="T38" t="n">
-        <v>65.53999184045725</v>
+        <v>65.53999184045719</v>
       </c>
       <c r="U38" t="n">
-        <v>97.98723872835316</v>
+        <v>97.98723872835311</v>
       </c>
       <c r="V38" t="n">
-        <v>179.3016774618109</v>
+        <v>179.3016774618108</v>
       </c>
       <c r="W38" t="n">
-        <v>204.6017769397678</v>
+        <v>204.6017769397677</v>
       </c>
       <c r="X38" t="n">
         <v>223.9020351725144</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.2986329687132</v>
+        <v>235.2986329687131</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.41201109632885</v>
+        <v>27.4120110963288</v>
       </c>
       <c r="C40" t="n">
-        <v>13.61200594172934</v>
+        <v>44.1221616394834</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43.20054432900694</v>
+        <v>12.69038863125349</v>
       </c>
       <c r="H40" t="n">
-        <v>1.4052355593692</v>
+        <v>1.405235559369143</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>53.21548414345109</v>
+        <v>53.21548414345104</v>
       </c>
       <c r="T40" t="n">
-        <v>75.54655476688121</v>
+        <v>75.54655476688116</v>
       </c>
       <c r="U40" t="n">
         <v>129.9978591084002</v>
@@ -3721,13 +3721,13 @@
         <v>103.8201474959544</v>
       </c>
       <c r="W40" t="n">
-        <v>128.9870335665677</v>
+        <v>128.9870335665676</v>
       </c>
       <c r="X40" t="n">
-        <v>74.63213556237082</v>
+        <v>74.63213556237076</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.50700331843851</v>
+        <v>65.50700331843845</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.7953002216318</v>
+        <v>235.7953002216317</v>
       </c>
       <c r="C41" t="n">
-        <v>223.8066171793135</v>
+        <v>223.8066171793134</v>
       </c>
       <c r="D41" t="n">
-        <v>214.7879212238415</v>
+        <v>214.7879212238414</v>
       </c>
       <c r="E41" t="n">
-        <v>236.530058793747</v>
+        <v>236.5300587937469</v>
       </c>
       <c r="F41" t="n">
-        <v>255.7018748817242</v>
+        <v>255.7018748817241</v>
       </c>
       <c r="G41" t="n">
         <v>257.1171391093272</v>
       </c>
       <c r="H41" t="n">
-        <v>169.8802526739185</v>
+        <v>169.8802526739184</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.24487308873228</v>
+        <v>19.24487308873219</v>
       </c>
       <c r="T41" t="n">
-        <v>65.53999184045725</v>
+        <v>65.53999184045716</v>
       </c>
       <c r="U41" t="n">
-        <v>97.98723872835316</v>
+        <v>97.98723872835308</v>
       </c>
       <c r="V41" t="n">
-        <v>179.3016774618109</v>
+        <v>179.3016774618108</v>
       </c>
       <c r="W41" t="n">
-        <v>204.6017769397678</v>
+        <v>204.6017769397677</v>
       </c>
       <c r="X41" t="n">
-        <v>223.9020351725144</v>
+        <v>223.9020351725143</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.2986329687132</v>
+        <v>235.2986329687131</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.41201109632885</v>
+        <v>27.41201109632877</v>
       </c>
       <c r="C43" t="n">
-        <v>13.61200594172934</v>
+        <v>44.12216163948361</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.69038863125355</v>
+        <v>12.69038863125346</v>
       </c>
       <c r="H43" t="n">
-        <v>1.4052355593692</v>
+        <v>1.405235559369114</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>83.72563984120458</v>
+        <v>53.21548414345101</v>
       </c>
       <c r="T43" t="n">
-        <v>75.54655476688121</v>
+        <v>75.54655476688113</v>
       </c>
       <c r="U43" t="n">
-        <v>129.9978591084002</v>
+        <v>129.9978591084001</v>
       </c>
       <c r="V43" t="n">
         <v>103.8201474959544</v>
       </c>
       <c r="W43" t="n">
-        <v>128.9870335665677</v>
+        <v>128.9870335665676</v>
       </c>
       <c r="X43" t="n">
-        <v>74.63213556237082</v>
+        <v>74.63213556237073</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.50700331843851</v>
+        <v>65.50700331843842</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.7953002216318</v>
+        <v>235.7953002216317</v>
       </c>
       <c r="C44" t="n">
-        <v>223.8066171793135</v>
+        <v>223.8066171793134</v>
       </c>
       <c r="D44" t="n">
-        <v>214.7879212238415</v>
+        <v>214.7879212238414</v>
       </c>
       <c r="E44" t="n">
-        <v>236.530058793747</v>
+        <v>236.5300587937469</v>
       </c>
       <c r="F44" t="n">
-        <v>255.7018748817242</v>
+        <v>255.7018748817241</v>
       </c>
       <c r="G44" t="n">
         <v>257.1171391093272</v>
       </c>
       <c r="H44" t="n">
-        <v>169.8802526739185</v>
+        <v>169.8802526739184</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.24487308873228</v>
+        <v>19.24487308873219</v>
       </c>
       <c r="T44" t="n">
-        <v>65.53999184045725</v>
+        <v>65.53999184045716</v>
       </c>
       <c r="U44" t="n">
-        <v>97.98723872835316</v>
+        <v>97.98723872835308</v>
       </c>
       <c r="V44" t="n">
-        <v>179.3016774618109</v>
+        <v>179.3016774618108</v>
       </c>
       <c r="W44" t="n">
-        <v>204.6017769397678</v>
+        <v>204.6017769397677</v>
       </c>
       <c r="X44" t="n">
-        <v>223.9020351725144</v>
+        <v>223.9020351725143</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.2986329687132</v>
+        <v>235.2986329687143</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.41201109632885</v>
+        <v>27.41201109632877</v>
       </c>
       <c r="C46" t="n">
-        <v>13.61200594172934</v>
+        <v>13.61200594172925</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>30.51015569775436</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.69038863125355</v>
+        <v>12.69038863125346</v>
       </c>
       <c r="H46" t="n">
-        <v>13.22028866727962</v>
+        <v>1.405235559369114</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.69510258984301</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.21548414345109</v>
+        <v>53.21548414345101</v>
       </c>
       <c r="T46" t="n">
-        <v>75.54655476688121</v>
+        <v>75.54655476688113</v>
       </c>
       <c r="U46" t="n">
-        <v>129.9978591084002</v>
+        <v>129.9978591084001</v>
       </c>
       <c r="V46" t="n">
         <v>103.8201474959544</v>
       </c>
       <c r="W46" t="n">
-        <v>128.9870335665677</v>
+        <v>128.9870335665676</v>
       </c>
       <c r="X46" t="n">
-        <v>74.63213556237082</v>
+        <v>74.63213556237073</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.50700331843851</v>
+        <v>65.50700331843842</v>
       </c>
     </row>
   </sheetData>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C8" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D8" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="E8" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F8" t="n">
         <v>13.01901823983628</v>
@@ -4802,22 +4802,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M8" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N8" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O8" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P8" t="n">
         <v>47.77178672141554</v>
@@ -4826,28 +4826,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S8" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="T8" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U8" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V8" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W8" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X8" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C9" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D9" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="E9" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="F9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I9" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M9" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N9" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O9" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P9" t="n">
         <v>47.77178672141554</v>
@@ -4905,28 +4905,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S9" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="T9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D10" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="E10" t="n">
-        <v>13.01901823983628</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="F10" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G10" t="n">
         <v>13.01901823983628</v>
       </c>
       <c r="H10" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I10" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="J10" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M10" t="n">
-        <v>12.77895294797866</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N10" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O10" t="n">
         <v>35.94826950786519</v>
@@ -4981,31 +4981,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="R10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.565633413083</v>
+        <v>1305.040537653705</v>
       </c>
       <c r="C11" t="n">
-        <v>1347.797323396618</v>
+        <v>1305.040537653705</v>
       </c>
       <c r="D11" t="n">
-        <v>1347.797323396618</v>
+        <v>1014.382021531656</v>
       </c>
       <c r="E11" t="n">
-        <v>1035.177052153453</v>
+        <v>701.76175028849</v>
       </c>
       <c r="F11" t="n">
-        <v>703.1913101143506</v>
+        <v>369.7760082493877</v>
       </c>
       <c r="G11" t="n">
-        <v>369.7760082493869</v>
+        <v>369.7760082493877</v>
       </c>
       <c r="H11" t="n">
-        <v>124.4787734908968</v>
+        <v>124.4787734908973</v>
       </c>
       <c r="I11" t="n">
-        <v>53.9990804016461</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="J11" t="n">
-        <v>169.5228895060738</v>
+        <v>169.5228895060748</v>
       </c>
       <c r="K11" t="n">
-        <v>474.8963507725012</v>
+        <v>474.8963507725022</v>
       </c>
       <c r="L11" t="n">
-        <v>903.7091393412259</v>
+        <v>903.7091393412268</v>
       </c>
       <c r="M11" t="n">
-        <v>1386.995648363612</v>
+        <v>1386.995648363613</v>
       </c>
       <c r="N11" t="n">
-        <v>1856.831409968232</v>
+        <v>1856.831409968234</v>
       </c>
       <c r="O11" t="n">
-        <v>2248.24100735612</v>
+        <v>2248.241007356123</v>
       </c>
       <c r="P11" t="n">
-        <v>2550.142583284548</v>
+        <v>2550.14258328455</v>
       </c>
       <c r="Q11" t="n">
-        <v>2699.954020082305</v>
+        <v>2699.954020082308</v>
       </c>
       <c r="R11" t="n">
-        <v>2699.954020082305</v>
+        <v>2699.954020082308</v>
       </c>
       <c r="S11" t="n">
-        <v>2606.813734399761</v>
+        <v>2606.813734399762</v>
       </c>
       <c r="T11" t="n">
-        <v>2466.910702503352</v>
+        <v>2606.813734399762</v>
       </c>
       <c r="U11" t="n">
-        <v>2466.910702503352</v>
+        <v>2434.135705646893</v>
       </c>
       <c r="V11" t="n">
-        <v>2466.910702503352</v>
+        <v>2208.664516786103</v>
       </c>
       <c r="W11" t="n">
-        <v>2270.820131053809</v>
+        <v>1928.295035294432</v>
       </c>
       <c r="X11" t="n">
-        <v>2270.820131053809</v>
+        <v>1928.295035294432</v>
       </c>
       <c r="Y11" t="n">
-        <v>1959.443724280375</v>
+        <v>1616.918628520997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>209.9766035141826</v>
       </c>
       <c r="H12" t="n">
-        <v>112.7425312251117</v>
+        <v>112.7425312251118</v>
       </c>
       <c r="I12" t="n">
-        <v>53.9990804016461</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="J12" t="n">
-        <v>140.176576490552</v>
+        <v>140.1765764905521</v>
       </c>
       <c r="K12" t="n">
-        <v>140.176576490552</v>
+        <v>413.9742624519699</v>
       </c>
       <c r="L12" t="n">
-        <v>565.5748303584935</v>
+        <v>839.3725163199114</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.131042781424</v>
+        <v>948.893790850198</v>
       </c>
       <c r="N12" t="n">
         <v>1531.52235908972</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>269.2783021073938</v>
+        <v>514.1548618278517</v>
       </c>
       <c r="C13" t="n">
-        <v>269.2783021073938</v>
+        <v>426.7043409402594</v>
       </c>
       <c r="D13" t="n">
-        <v>269.2783021073938</v>
+        <v>355.7978964187494</v>
       </c>
       <c r="E13" t="n">
-        <v>199.4347365194403</v>
+        <v>285.9543308307955</v>
       </c>
       <c r="F13" t="n">
-        <v>129.1195301959451</v>
+        <v>215.6391245072998</v>
       </c>
       <c r="G13" t="n">
-        <v>129.1195301959451</v>
+        <v>129.1195301959455</v>
       </c>
       <c r="H13" t="n">
-        <v>53.9990804016461</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="I13" t="n">
-        <v>53.9990804016461</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="J13" t="n">
-        <v>91.93081351170531</v>
+        <v>91.93081351170497</v>
       </c>
       <c r="K13" t="n">
-        <v>232.7912451884878</v>
+        <v>232.7912451884871</v>
       </c>
       <c r="L13" t="n">
-        <v>448.1286156784741</v>
+        <v>448.128615678473</v>
       </c>
       <c r="M13" t="n">
-        <v>682.7115141613584</v>
+        <v>682.7115141613567</v>
       </c>
       <c r="N13" t="n">
-        <v>916.865844982914</v>
+        <v>916.865844982912</v>
       </c>
       <c r="O13" t="n">
-        <v>1128.374253186961</v>
+        <v>1128.374253186958</v>
       </c>
       <c r="P13" t="n">
-        <v>1299.69478406788</v>
+        <v>1299.694784067877</v>
       </c>
       <c r="Q13" t="n">
-        <v>1361.716988726513</v>
+        <v>1361.71698872651</v>
       </c>
       <c r="R13" t="n">
-        <v>1304.913876393061</v>
+        <v>1304.913876393058</v>
       </c>
       <c r="S13" t="n">
-        <v>1177.459842170397</v>
+        <v>1304.913876393058</v>
       </c>
       <c r="T13" t="n">
-        <v>1177.459842170397</v>
+        <v>1154.903205177029</v>
       </c>
       <c r="U13" t="n">
-        <v>972.4478534376824</v>
+        <v>949.8912164443143</v>
       </c>
       <c r="V13" t="n">
-        <v>793.8779976468327</v>
+        <v>949.8912164443143</v>
       </c>
       <c r="W13" t="n">
-        <v>589.8870448149595</v>
+        <v>745.9002636124408</v>
       </c>
       <c r="X13" t="n">
-        <v>510.5379322980411</v>
+        <v>615.5447818615042</v>
       </c>
       <c r="Y13" t="n">
-        <v>370.6682221410459</v>
+        <v>615.5447818615042</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1604.808847670168</v>
+        <v>1638.455839518669</v>
       </c>
       <c r="C14" t="n">
-        <v>1305.040537653703</v>
+        <v>1638.455839518669</v>
       </c>
       <c r="D14" t="n">
-        <v>1014.382021531654</v>
+        <v>1347.79732339662</v>
       </c>
       <c r="E14" t="n">
-        <v>701.7617502884889</v>
+        <v>1035.177052153454</v>
       </c>
       <c r="F14" t="n">
-        <v>369.7760082493869</v>
+        <v>703.1913101143518</v>
       </c>
       <c r="G14" t="n">
-        <v>369.7760082493869</v>
+        <v>369.7760082493878</v>
       </c>
       <c r="H14" t="n">
-        <v>124.4787734908967</v>
+        <v>124.4787734908973</v>
       </c>
       <c r="I14" t="n">
-        <v>53.99908040164612</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="J14" t="n">
-        <v>169.522889506075</v>
+        <v>169.5228895060748</v>
       </c>
       <c r="K14" t="n">
-        <v>474.8963507725023</v>
+        <v>474.8963507725022</v>
       </c>
       <c r="L14" t="n">
-        <v>903.709139341227</v>
+        <v>903.7091393412268</v>
       </c>
       <c r="M14" t="n">
         <v>1386.995648363613</v>
       </c>
       <c r="N14" t="n">
-        <v>1856.831409968233</v>
+        <v>1856.831409968232</v>
       </c>
       <c r="O14" t="n">
         <v>2248.241007356121</v>
@@ -5297,31 +5297,31 @@
         <v>2550.142583284548</v>
       </c>
       <c r="Q14" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082308</v>
       </c>
       <c r="R14" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082308</v>
       </c>
       <c r="S14" t="n">
-        <v>2606.813734399761</v>
+        <v>2606.813734399763</v>
       </c>
       <c r="T14" t="n">
-        <v>2466.910702503354</v>
+        <v>2606.813734399763</v>
       </c>
       <c r="U14" t="n">
-        <v>2466.910702503354</v>
+        <v>2485.015553237107</v>
       </c>
       <c r="V14" t="n">
-        <v>2466.910702503354</v>
+        <v>2230.201727783776</v>
       </c>
       <c r="W14" t="n">
-        <v>2466.910702503354</v>
+        <v>1949.832246292104</v>
       </c>
       <c r="X14" t="n">
-        <v>2167.046010675575</v>
+        <v>1949.832246292104</v>
       </c>
       <c r="Y14" t="n">
-        <v>1855.66960390214</v>
+        <v>1638.455839518669</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>209.9766035141826</v>
       </c>
       <c r="H15" t="n">
-        <v>112.7425312251117</v>
+        <v>112.7425312251118</v>
       </c>
       <c r="I15" t="n">
-        <v>53.99908040164612</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="J15" t="n">
-        <v>140.176576490552</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="K15" t="n">
-        <v>413.9742624519699</v>
+        <v>327.796766363064</v>
       </c>
       <c r="L15" t="n">
-        <v>839.3725163199113</v>
+        <v>753.1950202310054</v>
       </c>
       <c r="M15" t="n">
-        <v>948.893790850198</v>
+        <v>1307.751232653935</v>
       </c>
       <c r="N15" t="n">
         <v>1531.52235908972</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>326.99443339308</v>
+        <v>150.9196479880328</v>
       </c>
       <c r="C16" t="n">
-        <v>239.543912505488</v>
+        <v>63.46912710044097</v>
       </c>
       <c r="D16" t="n">
-        <v>168.6374679839784</v>
+        <v>63.46912710044097</v>
       </c>
       <c r="E16" t="n">
-        <v>168.6374679839784</v>
+        <v>63.46912710044097</v>
       </c>
       <c r="F16" t="n">
-        <v>168.6374679839784</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="G16" t="n">
-        <v>108.9784365429086</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="H16" t="n">
-        <v>108.9784365429086</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="I16" t="n">
-        <v>53.99908040164612</v>
+        <v>53.99908040164615</v>
       </c>
       <c r="J16" t="n">
-        <v>91.93081351170534</v>
+        <v>91.93081351170497</v>
       </c>
       <c r="K16" t="n">
-        <v>232.7912451884879</v>
+        <v>232.7912451884872</v>
       </c>
       <c r="L16" t="n">
-        <v>448.1286156784743</v>
+        <v>448.1286156784731</v>
       </c>
       <c r="M16" t="n">
-        <v>682.7115141613583</v>
+        <v>682.7115141613567</v>
       </c>
       <c r="N16" t="n">
-        <v>916.8658449829139</v>
+        <v>916.865844982912</v>
       </c>
       <c r="O16" t="n">
-        <v>1128.374253186961</v>
+        <v>1128.374253186958</v>
       </c>
       <c r="P16" t="n">
-        <v>1299.69478406788</v>
+        <v>1299.694784067877</v>
       </c>
       <c r="Q16" t="n">
-        <v>1361.716988726514</v>
+        <v>1361.71698872651</v>
       </c>
       <c r="R16" t="n">
-        <v>1304.913876393061</v>
+        <v>1304.913876393057</v>
       </c>
       <c r="S16" t="n">
-        <v>1304.913876393061</v>
+        <v>1177.459842170392</v>
       </c>
       <c r="T16" t="n">
-        <v>1304.913876393061</v>
+        <v>1027.449170954364</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.901887660347</v>
+        <v>822.4371822216492</v>
       </c>
       <c r="V16" t="n">
-        <v>921.3320318694971</v>
+        <v>643.867326430799</v>
       </c>
       <c r="W16" t="n">
-        <v>717.3410790376239</v>
+        <v>439.8763735989254</v>
       </c>
       <c r="X16" t="n">
-        <v>568.2540635837273</v>
+        <v>290.7893581450284</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.3843534267321</v>
+        <v>150.9196479880328</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1425.538336827781</v>
+        <v>1425.538336827779</v>
       </c>
       <c r="C17" t="n">
-        <v>1199.471046747666</v>
+        <v>1199.471046747664</v>
       </c>
       <c r="D17" t="n">
-        <v>982.5135505619673</v>
+        <v>982.5135505619655</v>
       </c>
       <c r="E17" t="n">
-        <v>743.5942992551521</v>
+        <v>743.5942992551503</v>
       </c>
       <c r="F17" t="n">
-        <v>485.3095771524004</v>
+        <v>485.3095771523986</v>
       </c>
       <c r="G17" t="n">
         <v>225.5952952237861</v>
       </c>
       <c r="H17" t="n">
-        <v>53.99908040164612</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="I17" t="n">
-        <v>53.99908040164612</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="J17" t="n">
-        <v>169.5228895060747</v>
+        <v>169.5228895060748</v>
       </c>
       <c r="K17" t="n">
-        <v>474.8963507725021</v>
+        <v>474.8963507725022</v>
       </c>
       <c r="L17" t="n">
         <v>903.7091393412268</v>
       </c>
       <c r="M17" t="n">
-        <v>1386.995648363613</v>
+        <v>1386.995648363614</v>
       </c>
       <c r="N17" t="n">
-        <v>1856.831409968232</v>
+        <v>1856.831409968233</v>
       </c>
       <c r="O17" t="n">
-        <v>2248.241007356121</v>
+        <v>2248.241007356122</v>
       </c>
       <c r="P17" t="n">
-        <v>2550.142583284548</v>
+        <v>2550.142583284549</v>
       </c>
       <c r="Q17" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082307</v>
       </c>
       <c r="R17" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082307</v>
       </c>
       <c r="S17" t="n">
-        <v>2680.514754336111</v>
+        <v>2680.51475433611</v>
       </c>
       <c r="T17" t="n">
-        <v>2614.312742376055</v>
+        <v>2614.312742376052</v>
       </c>
       <c r="U17" t="n">
-        <v>2515.335733559536</v>
+        <v>2515.335733559535</v>
       </c>
       <c r="V17" t="n">
-        <v>2334.222928042556</v>
+        <v>2334.222928042554</v>
       </c>
       <c r="W17" t="n">
-        <v>2127.554466487235</v>
+        <v>2127.554466487233</v>
       </c>
       <c r="X17" t="n">
-        <v>1901.390794595806</v>
+        <v>1901.390794595804</v>
       </c>
       <c r="Y17" t="n">
-        <v>1663.715407758722</v>
+        <v>1663.71540775872</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>112.7425312251117</v>
       </c>
       <c r="I18" t="n">
-        <v>53.99908040164612</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="J18" t="n">
         <v>140.176576490552</v>
@@ -5598,7 +5598,7 @@
         <v>413.9742624519699</v>
       </c>
       <c r="L18" t="n">
-        <v>839.3725163199113</v>
+        <v>839.3725163199114</v>
       </c>
       <c r="M18" t="n">
         <v>1393.928728742841</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.98658558584023</v>
+        <v>81.98658558584025</v>
       </c>
       <c r="C19" t="n">
-        <v>68.23708463459845</v>
+        <v>68.23708463459846</v>
       </c>
       <c r="D19" t="n">
-        <v>68.23708463459845</v>
+        <v>68.23708463459846</v>
       </c>
       <c r="E19" t="n">
-        <v>68.23708463459845</v>
+        <v>68.23708463459846</v>
       </c>
       <c r="F19" t="n">
-        <v>68.23708463459845</v>
+        <v>68.23708463459846</v>
       </c>
       <c r="G19" t="n">
-        <v>55.41851025959483</v>
+        <v>55.41851025959485</v>
       </c>
       <c r="H19" t="n">
-        <v>53.99908040164612</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="I19" t="n">
-        <v>53.99908040164612</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="J19" t="n">
-        <v>53.99908040164612</v>
+        <v>53.99908040164613</v>
       </c>
       <c r="K19" t="n">
         <v>114.3291558558505</v>
@@ -5701,16 +5701,16 @@
         <v>724.8278993360374</v>
       </c>
       <c r="T19" t="n">
-        <v>617.6999089677198</v>
+        <v>648.5182480563593</v>
       </c>
       <c r="U19" t="n">
-        <v>486.3889401713559</v>
+        <v>517.2072792599954</v>
       </c>
       <c r="V19" t="n">
-        <v>381.5201043168564</v>
+        <v>412.3384434054959</v>
       </c>
       <c r="W19" t="n">
-        <v>251.2301714213334</v>
+        <v>282.048510509973</v>
       </c>
       <c r="X19" t="n">
         <v>175.8441759037871</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1425.538336827781</v>
+        <v>1425.538336827779</v>
       </c>
       <c r="C20" t="n">
-        <v>1199.471046747666</v>
+        <v>1199.471046747665</v>
       </c>
       <c r="D20" t="n">
-        <v>982.5135505619671</v>
+        <v>982.513550561966</v>
       </c>
       <c r="E20" t="n">
-        <v>743.5942992551519</v>
+        <v>743.5942992551508</v>
       </c>
       <c r="F20" t="n">
-        <v>485.3095771524002</v>
+        <v>485.309577152399</v>
       </c>
       <c r="G20" t="n">
         <v>225.5952952237861</v>
@@ -5753,7 +5753,7 @@
         <v>169.5228895060748</v>
       </c>
       <c r="K20" t="n">
-        <v>474.8963507725021</v>
+        <v>474.8963507725022</v>
       </c>
       <c r="L20" t="n">
         <v>903.7091393412268</v>
@@ -5786,16 +5786,16 @@
         <v>2515.335733559536</v>
       </c>
       <c r="V20" t="n">
-        <v>2334.222928042555</v>
+        <v>2334.222928042554</v>
       </c>
       <c r="W20" t="n">
-        <v>2127.554466487235</v>
+        <v>2127.554466487234</v>
       </c>
       <c r="X20" t="n">
-        <v>1901.390794595806</v>
+        <v>1901.390794595805</v>
       </c>
       <c r="Y20" t="n">
-        <v>1663.715407758722</v>
+        <v>1663.715407758721</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>53.99908040164612</v>
       </c>
       <c r="J21" t="n">
-        <v>53.99908040164612</v>
+        <v>140.176576490552</v>
       </c>
       <c r="K21" t="n">
-        <v>327.796766363064</v>
+        <v>413.9742624519699</v>
       </c>
       <c r="L21" t="n">
-        <v>753.1950202310054</v>
+        <v>839.3725163199113</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.751232653935</v>
+        <v>1393.928728742841</v>
       </c>
       <c r="N21" t="n">
-        <v>1890.379800893457</v>
+        <v>1724.318972184909</v>
       </c>
       <c r="O21" t="n">
-        <v>1989.005441731884</v>
+        <v>2181.802054827074</v>
       </c>
       <c r="P21" t="n">
-        <v>2343.496829786209</v>
+        <v>2536.293442881398</v>
       </c>
       <c r="Q21" t="n">
         <v>2536.293442881398</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.98658558584023</v>
+        <v>112.8049246744797</v>
       </c>
       <c r="C22" t="n">
-        <v>68.23708463459845</v>
+        <v>99.05542372323795</v>
       </c>
       <c r="D22" t="n">
-        <v>68.23708463459845</v>
+        <v>99.05542372323795</v>
       </c>
       <c r="E22" t="n">
-        <v>68.23708463459845</v>
+        <v>99.05542372323795</v>
       </c>
       <c r="F22" t="n">
-        <v>68.23708463459845</v>
+        <v>99.05542372323795</v>
       </c>
       <c r="G22" t="n">
-        <v>55.41851025959483</v>
+        <v>86.23684934823433</v>
       </c>
       <c r="H22" t="n">
-        <v>53.99908040164612</v>
+        <v>84.81741949028562</v>
       </c>
       <c r="I22" t="n">
-        <v>53.99908040164612</v>
+        <v>84.81741949028562</v>
       </c>
       <c r="J22" t="n">
         <v>53.99908040164612</v>
@@ -5929,31 +5929,31 @@
         <v>778.5809136223517</v>
       </c>
       <c r="Q22" t="n">
-        <v>759.6969716124092</v>
+        <v>778.5809136223517</v>
       </c>
       <c r="R22" t="n">
-        <v>747.7625745337122</v>
+        <v>778.5809136223517</v>
       </c>
       <c r="S22" t="n">
-        <v>694.0095602473979</v>
+        <v>724.8278993360374</v>
       </c>
       <c r="T22" t="n">
-        <v>617.6999089677198</v>
+        <v>648.5182480563593</v>
       </c>
       <c r="U22" t="n">
-        <v>486.3889401713559</v>
+        <v>517.2072792599954</v>
       </c>
       <c r="V22" t="n">
-        <v>381.5201043168564</v>
+        <v>412.3384434054959</v>
       </c>
       <c r="W22" t="n">
-        <v>251.2301714213334</v>
+        <v>282.048510509973</v>
       </c>
       <c r="X22" t="n">
-        <v>175.8441759037871</v>
+        <v>206.6625149924267</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.6754856831421</v>
+        <v>140.4938247717816</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1425.538336827778</v>
+        <v>1425.53833682778</v>
       </c>
       <c r="C23" t="n">
-        <v>1199.471046747663</v>
+        <v>1199.471046747665</v>
       </c>
       <c r="D23" t="n">
-        <v>982.5135505619653</v>
+        <v>982.5135505619671</v>
       </c>
       <c r="E23" t="n">
-        <v>743.5942992551502</v>
+        <v>743.594299255152</v>
       </c>
       <c r="F23" t="n">
-        <v>485.309577152399</v>
+        <v>485.3095771524003</v>
       </c>
       <c r="G23" t="n">
         <v>225.595295223786</v>
       </c>
       <c r="H23" t="n">
-        <v>53.99908040164613</v>
+        <v>53.99908040164612</v>
       </c>
       <c r="I23" t="n">
-        <v>53.99908040164613</v>
+        <v>53.99908040164612</v>
       </c>
       <c r="J23" t="n">
-        <v>169.5228895060748</v>
+        <v>169.522889506075</v>
       </c>
       <c r="K23" t="n">
-        <v>474.8963507725022</v>
+        <v>474.8963507725023</v>
       </c>
       <c r="L23" t="n">
-        <v>903.7091393412279</v>
+        <v>903.709139341227</v>
       </c>
       <c r="M23" t="n">
-        <v>1386.995648363614</v>
+        <v>1386.995648363613</v>
       </c>
       <c r="N23" t="n">
-        <v>1856.831409968234</v>
+        <v>1856.831409968233</v>
       </c>
       <c r="O23" t="n">
-        <v>2248.241007356122</v>
+        <v>2248.241007356121</v>
       </c>
       <c r="P23" t="n">
-        <v>2550.142583284549</v>
+        <v>2550.142583284548</v>
       </c>
       <c r="Q23" t="n">
-        <v>2699.954020082307</v>
+        <v>2699.954020082306</v>
       </c>
       <c r="R23" t="n">
-        <v>2699.954020082307</v>
+        <v>2699.954020082306</v>
       </c>
       <c r="S23" t="n">
-        <v>2680.514754336113</v>
+        <v>2680.514754336112</v>
       </c>
       <c r="T23" t="n">
-        <v>2614.312742376053</v>
+        <v>2614.312742376054</v>
       </c>
       <c r="U23" t="n">
-        <v>2515.335733559535</v>
+        <v>2515.335733559536</v>
       </c>
       <c r="V23" t="n">
-        <v>2334.222928042554</v>
+        <v>2334.222928042555</v>
       </c>
       <c r="W23" t="n">
-        <v>2127.554466487232</v>
+        <v>2127.554466487234</v>
       </c>
       <c r="X23" t="n">
-        <v>1901.390794595804</v>
+        <v>1901.390794595805</v>
       </c>
       <c r="Y23" t="n">
-        <v>1663.715407758719</v>
+        <v>1663.715407758721</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.6892652959262</v>
+        <v>1084.349842496834</v>
       </c>
       <c r="C24" t="n">
-        <v>758.985592536881</v>
+        <v>922.6461697377883</v>
       </c>
       <c r="D24" t="n">
-        <v>620.146955527093</v>
+        <v>783.8075327280004</v>
       </c>
       <c r="E24" t="n">
-        <v>473.1189455839643</v>
+        <v>636.7795227848717</v>
       </c>
       <c r="F24" t="n">
-        <v>338.4251475338386</v>
+        <v>502.085724734746</v>
       </c>
       <c r="G24" t="n">
-        <v>209.9766035141826</v>
+        <v>373.6371807150899</v>
       </c>
       <c r="H24" t="n">
-        <v>112.7425312251117</v>
+        <v>276.4031084260191</v>
       </c>
       <c r="I24" t="n">
-        <v>53.99908040164613</v>
+        <v>217.6596576025535</v>
       </c>
       <c r="J24" t="n">
-        <v>53.99908040164613</v>
+        <v>303.8371536914594</v>
       </c>
       <c r="K24" t="n">
-        <v>327.796766363064</v>
+        <v>577.6348396528772</v>
       </c>
       <c r="L24" t="n">
-        <v>753.1950202310054</v>
+        <v>1003.033093520819</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.751232653935</v>
+        <v>1557.589305943749</v>
       </c>
       <c r="N24" t="n">
-        <v>1890.379800893457</v>
+        <v>2140.21787418327</v>
       </c>
       <c r="O24" t="n">
-        <v>1989.005441731884</v>
+        <v>2507.157406987116</v>
       </c>
       <c r="P24" t="n">
-        <v>2343.496829786209</v>
+        <v>2507.157406987116</v>
       </c>
       <c r="Q24" t="n">
-        <v>2536.293442881398</v>
+        <v>2699.954020082306</v>
       </c>
       <c r="R24" t="n">
-        <v>2493.891000854117</v>
+        <v>2657.551578055024</v>
       </c>
       <c r="S24" t="n">
-        <v>2346.291572981535</v>
+        <v>2509.952150182442</v>
       </c>
       <c r="T24" t="n">
-        <v>2158.73488811479</v>
+        <v>2322.395465315697</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.25851386817</v>
+        <v>2103.919091069077</v>
       </c>
       <c r="V24" t="n">
-        <v>1711.862891316503</v>
+        <v>1875.523468517411</v>
       </c>
       <c r="W24" t="n">
-        <v>1470.547022549814</v>
+        <v>1634.207599750721</v>
       </c>
       <c r="X24" t="n">
-        <v>1272.630034427608</v>
+        <v>1436.290611628516</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.108708077187</v>
+        <v>1243.769285278094</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.8049246744799</v>
+        <v>112.8049246744805</v>
       </c>
       <c r="C25" t="n">
-        <v>99.05542372323818</v>
+        <v>99.0554237232388</v>
       </c>
       <c r="D25" t="n">
-        <v>99.05542372323818</v>
+        <v>99.0554237232388</v>
       </c>
       <c r="E25" t="n">
-        <v>99.05542372323818</v>
+        <v>99.0554237232388</v>
       </c>
       <c r="F25" t="n">
-        <v>99.05542372323818</v>
+        <v>99.0554237232388</v>
       </c>
       <c r="G25" t="n">
-        <v>86.23684934823459</v>
+        <v>55.41851025959475</v>
       </c>
       <c r="H25" t="n">
-        <v>84.8174194902859</v>
+        <v>53.99908040164612</v>
       </c>
       <c r="I25" t="n">
-        <v>84.8174194902859</v>
+        <v>53.99908040164612</v>
       </c>
       <c r="J25" t="n">
-        <v>53.99908040164613</v>
+        <v>53.99908040164612</v>
       </c>
       <c r="K25" t="n">
         <v>114.3291558558505</v>
@@ -6172,25 +6172,25 @@
         <v>778.5809136223517</v>
       </c>
       <c r="S25" t="n">
-        <v>724.8278993360374</v>
+        <v>724.8278993360375</v>
       </c>
       <c r="T25" t="n">
-        <v>648.5182480563594</v>
+        <v>648.5182480563595</v>
       </c>
       <c r="U25" t="n">
-        <v>517.2072792599955</v>
+        <v>517.2072792599957</v>
       </c>
       <c r="V25" t="n">
-        <v>412.338443405496</v>
+        <v>412.3384434054964</v>
       </c>
       <c r="W25" t="n">
-        <v>282.0485105099731</v>
+        <v>282.0485105099735</v>
       </c>
       <c r="X25" t="n">
-        <v>206.6625149924268</v>
+        <v>206.6625149924272</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.4938247717818</v>
+        <v>140.4938247717823</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1801.484766994133</v>
+        <v>1801.484766994132</v>
       </c>
       <c r="C26" t="n">
         <v>1523.511215962883</v>
@@ -6209,13 +6209,13 @@
         <v>1254.64745882605</v>
       </c>
       <c r="E26" t="n">
-        <v>963.8219465681</v>
+        <v>963.8219465680995</v>
       </c>
       <c r="F26" t="n">
-        <v>653.6309635142129</v>
+        <v>653.630963514213</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0104206344646</v>
+        <v>342.0104206344647</v>
       </c>
       <c r="H26" t="n">
         <v>118.50794486119</v>
@@ -6224,22 +6224,22 @@
         <v>69.82301075715475</v>
       </c>
       <c r="J26" t="n">
-        <v>287.2382193655713</v>
+        <v>287.2382193655712</v>
       </c>
       <c r="K26" t="n">
-        <v>694.5030801359867</v>
+        <v>694.5030801359865</v>
       </c>
       <c r="L26" t="n">
         <v>1225.207268208699</v>
       </c>
       <c r="M26" t="n">
-        <v>1810.385176735073</v>
+        <v>1725.356095677768</v>
       </c>
       <c r="N26" t="n">
-        <v>2382.112337843681</v>
+        <v>2297.083256786375</v>
       </c>
       <c r="O26" t="n">
-        <v>2875.413334735557</v>
+        <v>2790.384253678252</v>
       </c>
       <c r="P26" t="n">
         <v>3194.177229110667</v>
@@ -6254,7 +6254,7 @@
         <v>3419.805011160408</v>
       </c>
       <c r="T26" t="n">
-        <v>3301.696738249216</v>
+        <v>3301.696738249215</v>
       </c>
       <c r="U26" t="n">
         <v>3150.813468481563</v>
@@ -6269,7 +6269,7 @@
         <v>2381.149746664428</v>
       </c>
       <c r="Y26" t="n">
-        <v>2091.568098876209</v>
+        <v>2091.568098876208</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>936.5131956514348</v>
+        <v>936.513195651435</v>
       </c>
       <c r="C27" t="n">
-        <v>774.8095228923895</v>
+        <v>774.8095228923897</v>
       </c>
       <c r="D27" t="n">
-        <v>635.9708858826016</v>
+        <v>635.9708858826018</v>
       </c>
       <c r="E27" t="n">
-        <v>488.9428759394729</v>
+        <v>488.942875939473</v>
       </c>
       <c r="F27" t="n">
-        <v>354.2490778893472</v>
+        <v>354.2490778893473</v>
       </c>
       <c r="G27" t="n">
         <v>225.8005338696912</v>
       </c>
       <c r="H27" t="n">
-        <v>128.5664615806203</v>
+        <v>128.5664615806204</v>
       </c>
       <c r="I27" t="n">
         <v>69.82301075715475</v>
       </c>
       <c r="J27" t="n">
-        <v>69.82301075715475</v>
+        <v>156.0005068460607</v>
       </c>
       <c r="K27" t="n">
-        <v>69.82301075715475</v>
+        <v>429.7981928074785</v>
       </c>
       <c r="L27" t="n">
-        <v>410.1615087827767</v>
+        <v>764.6528968371011</v>
       </c>
       <c r="M27" t="n">
-        <v>964.7177212057068</v>
+        <v>1319.209109260031</v>
       </c>
       <c r="N27" t="n">
-        <v>1547.346289445229</v>
+        <v>1901.837677499553</v>
       </c>
       <c r="O27" t="n">
-        <v>2004.829372087393</v>
+        <v>2359.320760141718</v>
       </c>
       <c r="P27" t="n">
         <v>2359.320760141718</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.3948354281119</v>
+        <v>432.3948354281123</v>
       </c>
       <c r="C28" t="n">
-        <v>366.7390735257354</v>
+        <v>366.7390735257357</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6273879894413</v>
+        <v>317.6273879894416</v>
       </c>
       <c r="E28" t="n">
-        <v>269.5785813867033</v>
+        <v>269.5785813867035</v>
       </c>
       <c r="F28" t="n">
-        <v>221.0581340484236</v>
+        <v>221.0581340484237</v>
       </c>
       <c r="G28" t="n">
-        <v>156.3332987222852</v>
+        <v>156.3332987222853</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0076079132017</v>
+        <v>103.0076079132018</v>
       </c>
       <c r="I28" t="n">
         <v>69.82301075715475</v>
       </c>
       <c r="J28" t="n">
-        <v>129.1157871486237</v>
+        <v>129.1157871486236</v>
       </c>
       <c r="K28" t="n">
-        <v>291.337262106816</v>
+        <v>291.3372621068158</v>
       </c>
       <c r="L28" t="n">
-        <v>528.0356758782115</v>
+        <v>528.0356758782118</v>
       </c>
       <c r="M28" t="n">
-        <v>783.9796176425049</v>
+        <v>783.9796176425056</v>
       </c>
       <c r="N28" t="n">
-        <v>1039.49499174547</v>
+        <v>1039.494991745471</v>
       </c>
       <c r="O28" t="n">
         <v>1272.364443230927</v>
       </c>
       <c r="P28" t="n">
-        <v>1465.046017393256</v>
+        <v>1465.046017393257</v>
       </c>
       <c r="Q28" t="n">
-        <v>1548.429265333299</v>
+        <v>1548.4292653333</v>
       </c>
       <c r="R28" t="n">
-        <v>1513.420911985062</v>
+        <v>1513.420911985063</v>
       </c>
       <c r="S28" t="n">
-        <v>1407.761636747613</v>
+        <v>1407.761636747614</v>
       </c>
       <c r="T28" t="n">
-        <v>1279.5457245168</v>
+        <v>1279.545724516801</v>
       </c>
       <c r="U28" t="n">
         <v>1096.328494769302</v>
       </c>
       <c r="V28" t="n">
-        <v>939.5533979636674</v>
+        <v>939.5533979636677</v>
       </c>
       <c r="W28" t="n">
-        <v>757.3572041170097</v>
+        <v>757.3572041170099</v>
       </c>
       <c r="X28" t="n">
-        <v>630.0649476483286</v>
+        <v>630.0649476483288</v>
       </c>
       <c r="Y28" t="n">
-        <v>511.9899964765486</v>
+        <v>511.989996476549</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1801.484766994132</v>
+        <v>1801.484766994133</v>
       </c>
       <c r="C29" t="n">
-        <v>1523.511215962882</v>
+        <v>1523.511215962884</v>
       </c>
       <c r="D29" t="n">
-        <v>1254.647458826049</v>
+        <v>1254.64745882605</v>
       </c>
       <c r="E29" t="n">
-        <v>963.8219465680991</v>
+        <v>963.8219465681002</v>
       </c>
       <c r="F29" t="n">
-        <v>653.6309635142129</v>
+        <v>653.6309635142136</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0104206344647</v>
+        <v>342.0104206344653</v>
       </c>
       <c r="H29" t="n">
         <v>118.50794486119</v>
       </c>
       <c r="I29" t="n">
-        <v>69.82301075715475</v>
+        <v>69.82301075715476</v>
       </c>
       <c r="J29" t="n">
-        <v>287.2382193655712</v>
+        <v>287.2382193655713</v>
       </c>
       <c r="K29" t="n">
-        <v>694.5030801359865</v>
+        <v>694.5030801359866</v>
       </c>
       <c r="L29" t="n">
         <v>1225.207268208699</v>
@@ -6473,40 +6473,40 @@
         <v>1725.356095677768</v>
       </c>
       <c r="N29" t="n">
-        <v>2297.083256786375</v>
+        <v>2297.083256786376</v>
       </c>
       <c r="O29" t="n">
         <v>2790.384253678252</v>
       </c>
       <c r="P29" t="n">
-        <v>3194.177229110667</v>
+        <v>3194.177229110668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3445.880065412412</v>
+        <v>3445.880065412413</v>
       </c>
       <c r="R29" t="n">
-        <v>3491.150537857737</v>
+        <v>3491.150537857738</v>
       </c>
       <c r="S29" t="n">
-        <v>3419.805011160408</v>
+        <v>3419.805011160409</v>
       </c>
       <c r="T29" t="n">
-        <v>3301.696738249215</v>
+        <v>3301.696738249217</v>
       </c>
       <c r="U29" t="n">
-        <v>3150.813468481562</v>
+        <v>3150.813468481563</v>
       </c>
       <c r="V29" t="n">
-        <v>2917.794402013446</v>
+        <v>2917.794402013447</v>
       </c>
       <c r="W29" t="n">
-        <v>2659.21967950699</v>
+        <v>2659.219679506992</v>
       </c>
       <c r="X29" t="n">
-        <v>2381.149746664427</v>
+        <v>2381.149746664428</v>
       </c>
       <c r="Y29" t="n">
-        <v>2091.568098876208</v>
+        <v>2091.568098876209</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>128.5664615806204</v>
       </c>
       <c r="I30" t="n">
-        <v>69.82301075715475</v>
+        <v>69.82301075715476</v>
       </c>
       <c r="J30" t="n">
         <v>156.0005068460607</v>
       </c>
       <c r="K30" t="n">
-        <v>429.7981928074785</v>
+        <v>429.7981928074786</v>
       </c>
       <c r="L30" t="n">
         <v>855.19644667542</v>
       </c>
       <c r="M30" t="n">
-        <v>1409.75265909835</v>
+        <v>964.7177212057068</v>
       </c>
       <c r="N30" t="n">
         <v>1547.346289445229</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.3948354281124</v>
+        <v>432.3948354281127</v>
       </c>
       <c r="C31" t="n">
-        <v>366.7390735257358</v>
+        <v>366.7390735257362</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6273879894416</v>
+        <v>317.627387989442</v>
       </c>
       <c r="E31" t="n">
-        <v>269.5785813867035</v>
+        <v>269.5785813867039</v>
       </c>
       <c r="F31" t="n">
-        <v>221.0581340484238</v>
+        <v>221.0581340484242</v>
       </c>
       <c r="G31" t="n">
-        <v>156.3332987222853</v>
+        <v>156.3332987222857</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0076079132018</v>
+        <v>103.0076079132022</v>
       </c>
       <c r="I31" t="n">
-        <v>69.82301075715475</v>
+        <v>69.82301075715476</v>
       </c>
       <c r="J31" t="n">
-        <v>129.1157871486241</v>
+        <v>129.1157871486238</v>
       </c>
       <c r="K31" t="n">
-        <v>291.3372621068163</v>
+        <v>291.337262106816</v>
       </c>
       <c r="L31" t="n">
-        <v>528.0356758782123</v>
+        <v>528.035675878212</v>
       </c>
       <c r="M31" t="n">
         <v>783.9796176425059</v>
@@ -6634,7 +6634,7 @@
         <v>1039.494991745471</v>
       </c>
       <c r="O31" t="n">
-        <v>1272.364443230927</v>
+        <v>1272.364443230928</v>
       </c>
       <c r="P31" t="n">
         <v>1465.046017393257</v>
@@ -6646,7 +6646,7 @@
         <v>1513.420911985063</v>
       </c>
       <c r="S31" t="n">
-        <v>1407.761636747613</v>
+        <v>1407.761636747614</v>
       </c>
       <c r="T31" t="n">
         <v>1279.545724516801</v>
@@ -6661,10 +6661,10 @@
         <v>757.3572041170103</v>
       </c>
       <c r="X31" t="n">
-        <v>630.0649476483292</v>
+        <v>630.0649476483291</v>
       </c>
       <c r="Y31" t="n">
-        <v>511.9899964765491</v>
+        <v>511.9899964765494</v>
       </c>
     </row>
     <row r="32">
@@ -6683,31 +6683,31 @@
         <v>1238.086572762626</v>
       </c>
       <c r="E32" t="n">
-        <v>950.3821505704752</v>
+        <v>950.3821505704748</v>
       </c>
       <c r="F32" t="n">
-        <v>643.3122575823879</v>
+        <v>643.3122575823872</v>
       </c>
       <c r="G32" t="n">
-        <v>334.812804768438</v>
+        <v>334.8128047684379</v>
       </c>
       <c r="H32" t="n">
-        <v>114.4314190609625</v>
+        <v>114.4314190609627</v>
       </c>
       <c r="I32" t="n">
-        <v>68.86757502272643</v>
+        <v>68.86757502272646</v>
       </c>
       <c r="J32" t="n">
-        <v>289.3417640046326</v>
+        <v>289.3417640046325</v>
       </c>
       <c r="K32" t="n">
-        <v>699.6656051485377</v>
+        <v>699.6656051485375</v>
       </c>
       <c r="L32" t="n">
         <v>1233.42877359474</v>
       </c>
       <c r="M32" t="n">
-        <v>1821.665662494604</v>
+        <v>1821.665662494603</v>
       </c>
       <c r="N32" t="n">
         <v>2291.501424099223</v>
@@ -6716,13 +6716,13 @@
         <v>2787.861401364589</v>
       </c>
       <c r="P32" t="n">
-        <v>3140.287481642272</v>
+        <v>3188.616934461088</v>
       </c>
       <c r="Q32" t="n">
-        <v>3395.049298317507</v>
+        <v>3443.378751136323</v>
       </c>
       <c r="R32" t="n">
-        <v>3443.378751136322</v>
+        <v>3443.378751136323</v>
       </c>
       <c r="S32" t="n">
         <v>3375.154314504793</v>
@@ -6731,7 +6731,7 @@
         <v>3260.167131659399</v>
       </c>
       <c r="U32" t="n">
-        <v>3112.404951957545</v>
+        <v>3112.404951957546</v>
       </c>
       <c r="V32" t="n">
         <v>2882.506975555229</v>
@@ -6762,34 +6762,34 @@
         <v>635.0154501481734</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9874402050445</v>
+        <v>487.9874402050447</v>
       </c>
       <c r="F33" t="n">
-        <v>353.2936421549189</v>
+        <v>353.293642154919</v>
       </c>
       <c r="G33" t="n">
         <v>224.8450981352629</v>
       </c>
       <c r="H33" t="n">
-        <v>127.611025846192</v>
+        <v>127.6110258461921</v>
       </c>
       <c r="I33" t="n">
-        <v>68.86757502272643</v>
+        <v>68.86757502272646</v>
       </c>
       <c r="J33" t="n">
-        <v>155.0450711116323</v>
+        <v>68.86757502272646</v>
       </c>
       <c r="K33" t="n">
-        <v>428.8427570730502</v>
+        <v>68.86757502272646</v>
       </c>
       <c r="L33" t="n">
-        <v>854.2410109409916</v>
+        <v>494.2658288906679</v>
       </c>
       <c r="M33" t="n">
-        <v>1408.797223363922</v>
+        <v>1048.822041313598</v>
       </c>
       <c r="N33" t="n">
-        <v>1546.3908537108</v>
+        <v>1631.45060955312</v>
       </c>
       <c r="O33" t="n">
         <v>2003.873936352965</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.5917692330897</v>
+        <v>409.591769233091</v>
       </c>
       <c r="C34" t="n">
-        <v>347.0570973965123</v>
+        <v>347.0570973965134</v>
       </c>
       <c r="D34" t="n">
-        <v>301.0665019260173</v>
+        <v>301.0665019260182</v>
       </c>
       <c r="E34" t="n">
-        <v>256.1387853890785</v>
+        <v>256.1387853890792</v>
       </c>
       <c r="F34" t="n">
-        <v>210.7394281165978</v>
+        <v>210.7394281165984</v>
       </c>
       <c r="G34" t="n">
-        <v>149.1356828562586</v>
+        <v>149.135682856259</v>
       </c>
       <c r="H34" t="n">
-        <v>98.93108211297425</v>
+        <v>98.93108211297447</v>
       </c>
       <c r="I34" t="n">
-        <v>68.86757502272643</v>
+        <v>68.86757502272646</v>
       </c>
       <c r="J34" t="n">
-        <v>131.2193317876851</v>
+        <v>131.2193317876849</v>
       </c>
       <c r="K34" t="n">
-        <v>296.499787119367</v>
+        <v>296.4997871193667</v>
       </c>
       <c r="L34" t="n">
-        <v>536.2571812642527</v>
+        <v>536.2571812642523</v>
       </c>
       <c r="M34" t="n">
-        <v>720.8508193613318</v>
+        <v>795.2601034020356</v>
       </c>
       <c r="N34" t="n">
-        <v>979.4251738377868</v>
+        <v>1053.83445787849</v>
       </c>
       <c r="O34" t="n">
-        <v>1215.353605696733</v>
+        <v>1215.353605696736</v>
       </c>
       <c r="P34" t="n">
-        <v>1411.094160232552</v>
+        <v>1411.094160232554</v>
       </c>
       <c r="Q34" t="n">
-        <v>1497.536388546085</v>
+        <v>1497.536388546087</v>
       </c>
       <c r="R34" t="n">
-        <v>1465.649125263647</v>
+        <v>1465.649125263649</v>
       </c>
       <c r="S34" t="n">
-        <v>1363.110940091997</v>
+        <v>1363.110940091999</v>
       </c>
       <c r="T34" t="n">
-        <v>1238.016117926983</v>
+        <v>1238.016117926986</v>
       </c>
       <c r="U34" t="n">
-        <v>1057.919978245284</v>
+        <v>1057.919978245286</v>
       </c>
       <c r="V34" t="n">
-        <v>904.2659715054484</v>
+        <v>904.2659715054506</v>
       </c>
       <c r="W34" t="n">
-        <v>725.1908677245898</v>
+        <v>725.1908677245917</v>
       </c>
       <c r="X34" t="n">
-        <v>601.0197013217079</v>
+        <v>601.0197013217096</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.0658402157273</v>
+        <v>486.0658402157288</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1425.538336827779</v>
+        <v>1425.53833682778</v>
       </c>
       <c r="C35" t="n">
-        <v>1199.471046747664</v>
+        <v>1199.471046747665</v>
       </c>
       <c r="D35" t="n">
-        <v>982.5135505619662</v>
+        <v>982.5135505619669</v>
       </c>
       <c r="E35" t="n">
-        <v>743.5942992551511</v>
+        <v>743.5942992551517</v>
       </c>
       <c r="F35" t="n">
         <v>485.3095771523999</v>
@@ -6935,10 +6935,10 @@
         <v>53.99908040164612</v>
       </c>
       <c r="J35" t="n">
-        <v>169.522889506075</v>
+        <v>169.5228895060748</v>
       </c>
       <c r="K35" t="n">
-        <v>474.8963507725023</v>
+        <v>474.8963507725022</v>
       </c>
       <c r="L35" t="n">
         <v>903.709139341227</v>
@@ -6962,25 +6962,25 @@
         <v>2699.954020082306</v>
       </c>
       <c r="S35" t="n">
-        <v>2680.514754336112</v>
+        <v>2680.514754336111</v>
       </c>
       <c r="T35" t="n">
-        <v>2614.312742376054</v>
+        <v>2614.312742376053</v>
       </c>
       <c r="U35" t="n">
         <v>2515.335733559536</v>
       </c>
       <c r="V35" t="n">
-        <v>2334.222928042554</v>
+        <v>2334.222928042555</v>
       </c>
       <c r="W35" t="n">
-        <v>2127.554466487233</v>
+        <v>2127.554466487234</v>
       </c>
       <c r="X35" t="n">
-        <v>1901.390794595804</v>
+        <v>1901.390794595805</v>
       </c>
       <c r="Y35" t="n">
-        <v>1663.71540775872</v>
+        <v>1663.715407758721</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.99908040164612</v>
       </c>
       <c r="J36" t="n">
-        <v>140.176576490552</v>
+        <v>53.99908040164612</v>
       </c>
       <c r="K36" t="n">
-        <v>413.9742624519699</v>
+        <v>53.99908040164612</v>
       </c>
       <c r="L36" t="n">
-        <v>839.3725163199113</v>
+        <v>479.3973342695875</v>
       </c>
       <c r="M36" t="n">
-        <v>1393.928728742841</v>
+        <v>1033.953546692518</v>
       </c>
       <c r="N36" t="n">
-        <v>1976.557296982363</v>
+        <v>1616.58211493204</v>
       </c>
       <c r="O36" t="n">
-        <v>1989.005441731884</v>
+        <v>2074.065197574204</v>
       </c>
       <c r="P36" t="n">
-        <v>2343.496829786209</v>
+        <v>2428.556585628528</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.293442881398</v>
@@ -7126,13 +7126,13 @@
         <v>648.5182480563594</v>
       </c>
       <c r="U37" t="n">
-        <v>486.3889401713557</v>
+        <v>517.2072792599955</v>
       </c>
       <c r="V37" t="n">
-        <v>381.5201043168562</v>
+        <v>412.338443405496</v>
       </c>
       <c r="W37" t="n">
-        <v>251.2301714213333</v>
+        <v>282.0485105099731</v>
       </c>
       <c r="X37" t="n">
         <v>175.844175903787</v>
@@ -7154,13 +7154,13 @@
         <v>1199.471046747665</v>
       </c>
       <c r="D38" t="n">
-        <v>982.5135505619664</v>
+        <v>982.513550561967</v>
       </c>
       <c r="E38" t="n">
-        <v>743.5942992551512</v>
+        <v>743.5942992551518</v>
       </c>
       <c r="F38" t="n">
-        <v>485.3095771523995</v>
+        <v>485.3095771524002</v>
       </c>
       <c r="G38" t="n">
         <v>225.595295223786</v>
@@ -7178,7 +7178,7 @@
         <v>474.8963507725022</v>
       </c>
       <c r="L38" t="n">
-        <v>903.7091393412269</v>
+        <v>903.7091393412268</v>
       </c>
       <c r="M38" t="n">
         <v>1386.995648363613</v>
@@ -7208,7 +7208,7 @@
         <v>2515.335733559536</v>
       </c>
       <c r="V38" t="n">
-        <v>2334.222928042554</v>
+        <v>2334.222928042555</v>
       </c>
       <c r="W38" t="n">
         <v>2127.554466487234</v>
@@ -7254,22 +7254,22 @@
         <v>140.176576490552</v>
       </c>
       <c r="K39" t="n">
-        <v>413.9742624519699</v>
+        <v>140.176576490552</v>
       </c>
       <c r="L39" t="n">
-        <v>839.3725163199113</v>
+        <v>565.5748303584935</v>
       </c>
       <c r="M39" t="n">
-        <v>1393.928728742841</v>
+        <v>1120.131042781424</v>
       </c>
       <c r="N39" t="n">
-        <v>1531.52235908972</v>
+        <v>1702.759611020946</v>
       </c>
       <c r="O39" t="n">
-        <v>1989.005441731884</v>
+        <v>2160.24269366311</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.496829786209</v>
+        <v>2514.734081717434</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.293442881398</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.8049246744799</v>
+        <v>112.8049246744805</v>
       </c>
       <c r="C40" t="n">
-        <v>99.05542372323818</v>
+        <v>68.23708463459828</v>
       </c>
       <c r="D40" t="n">
-        <v>99.05542372323818</v>
+        <v>68.23708463459828</v>
       </c>
       <c r="E40" t="n">
-        <v>99.05542372323818</v>
+        <v>68.23708463459828</v>
       </c>
       <c r="F40" t="n">
-        <v>99.05542372323818</v>
+        <v>68.23708463459828</v>
       </c>
       <c r="G40" t="n">
-        <v>55.4185102595948</v>
+        <v>55.41851025959475</v>
       </c>
       <c r="H40" t="n">
         <v>53.99908040164612</v>
@@ -7357,25 +7357,25 @@
         <v>778.5809136223517</v>
       </c>
       <c r="S40" t="n">
-        <v>724.8278993360374</v>
+        <v>724.8278993360375</v>
       </c>
       <c r="T40" t="n">
-        <v>648.5182480563594</v>
+        <v>648.5182480563595</v>
       </c>
       <c r="U40" t="n">
-        <v>517.2072792599955</v>
+        <v>517.2072792599957</v>
       </c>
       <c r="V40" t="n">
-        <v>412.338443405496</v>
+        <v>412.3384434054964</v>
       </c>
       <c r="W40" t="n">
-        <v>282.0485105099731</v>
+        <v>282.0485105099735</v>
       </c>
       <c r="X40" t="n">
-        <v>206.6625149924268</v>
+        <v>206.6625149924272</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.4938247717818</v>
+        <v>140.4938247717823</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1425.538336827779</v>
+        <v>1425.53833682778</v>
       </c>
       <c r="C41" t="n">
         <v>1199.471046747665</v>
       </c>
       <c r="D41" t="n">
-        <v>982.5135505619664</v>
+        <v>982.5135505619668</v>
       </c>
       <c r="E41" t="n">
-        <v>743.5942992551516</v>
+        <v>743.5942992551517</v>
       </c>
       <c r="F41" t="n">
         <v>485.3095771523999</v>
       </c>
       <c r="G41" t="n">
-        <v>225.595295223786</v>
+        <v>225.5952952237859</v>
       </c>
       <c r="H41" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="I41" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="J41" t="n">
-        <v>169.5228895060748</v>
+        <v>169.5228895060747</v>
       </c>
       <c r="K41" t="n">
-        <v>474.8963507725022</v>
+        <v>474.8963507725016</v>
       </c>
       <c r="L41" t="n">
-        <v>903.7091393412268</v>
+        <v>903.7091393412263</v>
       </c>
       <c r="M41" t="n">
-        <v>1386.995648363613</v>
+        <v>1386.995648363612</v>
       </c>
       <c r="N41" t="n">
         <v>1856.831409968232</v>
       </c>
       <c r="O41" t="n">
-        <v>2248.241007356121</v>
+        <v>2248.24100735612</v>
       </c>
       <c r="P41" t="n">
         <v>2550.142583284548</v>
       </c>
       <c r="Q41" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082305</v>
       </c>
       <c r="R41" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082305</v>
       </c>
       <c r="S41" t="n">
-        <v>2680.514754336112</v>
+        <v>2680.514754336111</v>
       </c>
       <c r="T41" t="n">
-        <v>2614.312742376054</v>
+        <v>2614.312742376053</v>
       </c>
       <c r="U41" t="n">
-        <v>2515.335733559536</v>
+        <v>2515.335733559535</v>
       </c>
       <c r="V41" t="n">
         <v>2334.222928042554</v>
@@ -7485,28 +7485,28 @@
         <v>112.7425312251117</v>
       </c>
       <c r="I42" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="J42" t="n">
-        <v>53.99908040164612</v>
+        <v>140.176576490552</v>
       </c>
       <c r="K42" t="n">
-        <v>327.796766363064</v>
+        <v>413.9742624519699</v>
       </c>
       <c r="L42" t="n">
-        <v>753.1950202310054</v>
+        <v>839.3725163199113</v>
       </c>
       <c r="M42" t="n">
-        <v>1141.690403945388</v>
+        <v>1393.928728742841</v>
       </c>
       <c r="N42" t="n">
-        <v>1724.318972184909</v>
+        <v>1531.52235908972</v>
       </c>
       <c r="O42" t="n">
-        <v>2181.802054827074</v>
+        <v>1989.005441731884</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.293442881398</v>
+        <v>2343.496829786209</v>
       </c>
       <c r="Q42" t="n">
         <v>2536.293442881398</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.98658558584015</v>
+        <v>112.8049246744806</v>
       </c>
       <c r="C43" t="n">
-        <v>68.23708463459839</v>
+        <v>68.2370846345982</v>
       </c>
       <c r="D43" t="n">
-        <v>68.23708463459839</v>
+        <v>68.2370846345982</v>
       </c>
       <c r="E43" t="n">
-        <v>68.23708463459839</v>
+        <v>68.2370846345982</v>
       </c>
       <c r="F43" t="n">
-        <v>68.23708463459839</v>
+        <v>68.2370846345982</v>
       </c>
       <c r="G43" t="n">
-        <v>55.4185102595948</v>
+        <v>55.4185102595947</v>
       </c>
       <c r="H43" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="I43" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="J43" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="K43" t="n">
-        <v>114.3291558558505</v>
+        <v>114.3291558558504</v>
       </c>
       <c r="L43" t="n">
         <v>249.1361701232586</v>
@@ -7594,25 +7594,25 @@
         <v>778.5809136223517</v>
       </c>
       <c r="S43" t="n">
-        <v>694.0095602473975</v>
+        <v>724.8278993360375</v>
       </c>
       <c r="T43" t="n">
-        <v>617.6999089677196</v>
+        <v>648.5182480563595</v>
       </c>
       <c r="U43" t="n">
-        <v>486.3889401713557</v>
+        <v>517.2072792599957</v>
       </c>
       <c r="V43" t="n">
-        <v>381.5201043168562</v>
+        <v>412.3384434054964</v>
       </c>
       <c r="W43" t="n">
-        <v>251.2301714213333</v>
+        <v>282.0485105099735</v>
       </c>
       <c r="X43" t="n">
-        <v>175.844175903787</v>
+        <v>206.6625149924273</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.675485683142</v>
+        <v>140.4938247717824</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1199.471046747664</v>
       </c>
       <c r="D44" t="n">
-        <v>982.5135505619662</v>
+        <v>982.5135505619659</v>
       </c>
       <c r="E44" t="n">
-        <v>743.5942992551511</v>
+        <v>743.5942992551508</v>
       </c>
       <c r="F44" t="n">
-        <v>485.3095771523999</v>
+        <v>485.3095771523991</v>
       </c>
       <c r="G44" t="n">
-        <v>225.595295223786</v>
+        <v>225.5952952237859</v>
       </c>
       <c r="H44" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="I44" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="J44" t="n">
-        <v>169.5228895060748</v>
+        <v>169.5228895060745</v>
       </c>
       <c r="K44" t="n">
-        <v>474.8963507725022</v>
+        <v>474.896350772502</v>
       </c>
       <c r="L44" t="n">
         <v>903.7091393412268</v>
@@ -7667,28 +7667,28 @@
         <v>2550.142583284548</v>
       </c>
       <c r="Q44" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082305</v>
       </c>
       <c r="R44" t="n">
-        <v>2699.954020082306</v>
+        <v>2699.954020082305</v>
       </c>
       <c r="S44" t="n">
-        <v>2680.514754336112</v>
+        <v>2680.514754336111</v>
       </c>
       <c r="T44" t="n">
-        <v>2614.312742376054</v>
+        <v>2614.312742376053</v>
       </c>
       <c r="U44" t="n">
         <v>2515.335733559536</v>
       </c>
       <c r="V44" t="n">
-        <v>2334.222928042554</v>
+        <v>2334.222928042555</v>
       </c>
       <c r="W44" t="n">
-        <v>2127.554466487233</v>
+        <v>2127.554466487234</v>
       </c>
       <c r="X44" t="n">
-        <v>1901.390794595804</v>
+        <v>1901.390794595805</v>
       </c>
       <c r="Y44" t="n">
         <v>1663.71540775872</v>
@@ -7722,7 +7722,7 @@
         <v>112.7425312251117</v>
       </c>
       <c r="I45" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="J45" t="n">
         <v>140.176576490552</v>
@@ -7731,19 +7731,19 @@
         <v>413.9742624519699</v>
       </c>
       <c r="L45" t="n">
-        <v>839.3725163199113</v>
+        <v>587.1341915224574</v>
       </c>
       <c r="M45" t="n">
-        <v>1393.928728742841</v>
+        <v>1141.690403945388</v>
       </c>
       <c r="N45" t="n">
-        <v>1531.52235908972</v>
+        <v>1724.318972184909</v>
       </c>
       <c r="O45" t="n">
-        <v>1989.005441731884</v>
+        <v>2181.802054827074</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.496829786209</v>
+        <v>2536.293442881398</v>
       </c>
       <c r="Q45" t="n">
         <v>2536.293442881398</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.92098266453755</v>
+        <v>112.8049246744806</v>
       </c>
       <c r="C46" t="n">
-        <v>80.17148171329579</v>
+        <v>99.05542372323897</v>
       </c>
       <c r="D46" t="n">
-        <v>80.17148171329579</v>
+        <v>68.2370846345982</v>
       </c>
       <c r="E46" t="n">
-        <v>80.17148171329579</v>
+        <v>68.2370846345982</v>
       </c>
       <c r="F46" t="n">
-        <v>80.17148171329579</v>
+        <v>68.2370846345982</v>
       </c>
       <c r="G46" t="n">
-        <v>67.3529073382922</v>
+        <v>55.4185102595947</v>
       </c>
       <c r="H46" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="I46" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="J46" t="n">
-        <v>53.99908040164612</v>
+        <v>53.9990804016461</v>
       </c>
       <c r="K46" t="n">
-        <v>114.3291558558505</v>
+        <v>114.3291558558504</v>
       </c>
       <c r="L46" t="n">
         <v>249.1361701232586</v>
@@ -7825,31 +7825,31 @@
         <v>778.5809136223517</v>
       </c>
       <c r="Q46" t="n">
-        <v>759.6969716124092</v>
+        <v>778.5809136223517</v>
       </c>
       <c r="R46" t="n">
-        <v>759.6969716124092</v>
+        <v>778.5809136223517</v>
       </c>
       <c r="S46" t="n">
-        <v>705.943957326095</v>
+        <v>724.8278993360375</v>
       </c>
       <c r="T46" t="n">
-        <v>629.634306046417</v>
+        <v>648.5182480563595</v>
       </c>
       <c r="U46" t="n">
-        <v>498.3233372500531</v>
+        <v>517.2072792599957</v>
       </c>
       <c r="V46" t="n">
-        <v>393.4545013955536</v>
+        <v>412.3384434054964</v>
       </c>
       <c r="W46" t="n">
-        <v>263.1645685000307</v>
+        <v>282.0485105099735</v>
       </c>
       <c r="X46" t="n">
-        <v>187.7785729824844</v>
+        <v>206.6625149924273</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.6098827618394</v>
+        <v>140.4938247717824</v>
       </c>
     </row>
   </sheetData>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>190.2834073541843</v>
       </c>
       <c r="L8" t="n">
-        <v>203.5031588434685</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>198.6167178772967</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>198.341060852584</v>
       </c>
       <c r="O8" t="n">
-        <v>198.8977434604743</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>199.8197557315104</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8529,25 +8529,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>126.9443059417775</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>118.6580877480622</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O9" t="n">
         <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8611,19 +8611,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>116.7662189439139</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N10" t="n">
-        <v>115.2049082581395</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>124.4388841724762</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
         <v>123.8469499702863</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236949</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8699,7 +8699,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355813</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
@@ -8769,16 +8769,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>67.24148896340483</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>155.8863425794004</v>
       </c>
       <c r="N12" t="n">
-        <v>450.1781655039673</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578781</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>76.8703700951518</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>155.8863425794005</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>260.6628221983999</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406832</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9410,7 +9410,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355795</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>76.8703700951518</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9489,16 +9489,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>368.3588999825246</v>
       </c>
       <c r="O21" t="n">
-        <v>149.5387506115288</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>78.35642042509912</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>76.8703700951518</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9729,10 +9729,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>149.5387506115288</v>
+        <v>420.5628839099317</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>55.92949008613603</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9951,13 +9951,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>76.87037009515178</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>67.24148896340478</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>396.1735035992246</v>
+        <v>390.6343177446799</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9969,7 +9969,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>55.92949008613603</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>155.8863425794005</v>
       </c>
       <c r="N30" t="n">
-        <v>173.61484635102</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.8703700951518</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>67.24148896340483</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,10 +10437,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>173.6148463510204</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>426.1020697644763</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>76.8703700951518</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>67.24148896340483</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10677,13 +10677,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>62.49077476414892</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>187.1815287613313</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10835,7 +10835,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415688</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>67.24148896340483</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>173.61484635102</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>100.1335529139514</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>76.8703700951518</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11145,10 +11145,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>437.6783720582848</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>173.61484635102</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.35642042509912</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578763</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11379,13 +11379,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>227.306262230402</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>173.61484635102</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>78.35642042509912</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>296.7706269163007</v>
       </c>
       <c r="D11" t="n">
-        <v>287.7519309608283</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>330.0811488463144</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>138.5040015774444</v>
       </c>
       <c r="U11" t="n">
-        <v>170.9512484653399</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>252.2656871987977</v>
+        <v>29.04921022661575</v>
       </c>
       <c r="W11" t="n">
-        <v>83.43612094170659</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>296.8660449095012</v>
+        <v>296.8660449095016</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>86.57601567871612</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>70.19738007629451</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>85.65439836824034</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.42956257984983</v>
+        <v>54.42956257985021</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>126.1794938804382</v>
       </c>
       <c r="T13" t="n">
-        <v>148.510564503868</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>176.7841572329416</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>69.04052390760856</v>
+        <v>18.54421836593088</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>138.4710130554257</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.40716128896626</v>
+        <v>308.7593099586189</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>296.7706269163007</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>330.081148846314</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>138.5040015774444</v>
       </c>
       <c r="U14" t="n">
-        <v>170.9512484653399</v>
+        <v>50.37104911431052</v>
       </c>
       <c r="V14" t="n">
-        <v>252.2656871987977</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>277.5657866767546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>296.8660449095016</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>100.376020833316</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.19738007629489</v>
       </c>
       <c r="E16" t="n">
-        <v>69.14512993207393</v>
+        <v>69.14512993207434</v>
       </c>
       <c r="F16" t="n">
-        <v>69.61205426026024</v>
+        <v>60.23670802845378</v>
       </c>
       <c r="G16" t="n">
-        <v>26.59195724158121</v>
+        <v>85.65439836824072</v>
       </c>
       <c r="H16" t="n">
-        <v>74.36924529635596</v>
+        <v>74.36924529635637</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.42956257985021</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>126.1794938804378</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>148.510564503868</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="T17" t="n">
-        <v>1.238049662788398e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-1.222133505507372e-12</v>
       </c>
     </row>
     <row r="45">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>939285.9265572577</v>
+        <v>939285.9265572575</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>903115.4009855723</v>
+        <v>903115.400985572</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>903115.4009855724</v>
+        <v>903115.400985572</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1017208.024383603</v>
+        <v>1017208.024383604</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1017208.024383603</v>
+        <v>1017208.024383604</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>459525.9789043825</v>
+        <v>459525.9789043826</v>
       </c>
       <c r="C2" t="n">
-        <v>459525.9789043824</v>
+        <v>459525.9789043826</v>
       </c>
       <c r="D2" t="n">
-        <v>460574.4362965091</v>
+        <v>460574.436296509</v>
       </c>
       <c r="E2" t="n">
-        <v>401047.850175797</v>
+        <v>401047.8501757971</v>
       </c>
       <c r="F2" t="n">
         <v>401047.8501757971</v>
       </c>
       <c r="G2" t="n">
+        <v>460574.4362965095</v>
+      </c>
+      <c r="H2" t="n">
+        <v>460574.4362965095</v>
+      </c>
+      <c r="I2" t="n">
         <v>460574.4362965092</v>
       </c>
-      <c r="H2" t="n">
-        <v>460574.4362965094</v>
-      </c>
-      <c r="I2" t="n">
-        <v>460574.4362965091</v>
-      </c>
       <c r="J2" t="n">
-        <v>460574.4362965093</v>
+        <v>460574.43629651</v>
       </c>
       <c r="K2" t="n">
         <v>460574.4362965092</v>
       </c>
       <c r="L2" t="n">
+        <v>460574.4362965091</v>
+      </c>
+      <c r="M2" t="n">
+        <v>460574.4362965092</v>
+      </c>
+      <c r="N2" t="n">
+        <v>460574.4362965092</v>
+      </c>
+      <c r="O2" t="n">
         <v>460574.436296509</v>
       </c>
-      <c r="M2" t="n">
-        <v>460574.4362965091</v>
-      </c>
-      <c r="N2" t="n">
-        <v>460574.4362965093</v>
-      </c>
-      <c r="O2" t="n">
-        <v>460574.4362965091</v>
-      </c>
       <c r="P2" t="n">
-        <v>460574.4362965089</v>
+        <v>460574.4362965092</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>3709.837527318327</v>
       </c>
       <c r="E3" t="n">
-        <v>366567.070507537</v>
+        <v>366567.0705075369</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58371.20778958938</v>
+        <v>58371.20778958971</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>75718.23208228624</v>
+        <v>75718.23208228592</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>60843.11112170234</v>
+        <v>60843.11112170252</v>
       </c>
       <c r="M3" t="n">
-        <v>157555.3564924064</v>
+        <v>157555.3564924066</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>23965.27665807755</v>
+        <v>23965.27665807719</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>387995.6593825327</v>
       </c>
       <c r="D4" t="n">
-        <v>387212.3726853604</v>
+        <v>387212.3726853603</v>
       </c>
       <c r="E4" t="n">
-        <v>219743.1377329557</v>
+        <v>219743.1377329554</v>
       </c>
       <c r="F4" t="n">
-        <v>219743.1377329557</v>
+        <v>219743.1377329554</v>
       </c>
       <c r="G4" t="n">
         <v>276187.7243048018</v>
@@ -26436,7 +26436,7 @@
         <v>276187.7243048018</v>
       </c>
       <c r="I4" t="n">
-        <v>276187.7243048018</v>
+        <v>276187.7243048019</v>
       </c>
       <c r="J4" t="n">
         <v>277224.3893572384</v>
@@ -26451,13 +26451,13 @@
         <v>276187.7243048018</v>
       </c>
       <c r="N4" t="n">
-        <v>276187.7243048018</v>
+        <v>276187.7243048019</v>
       </c>
       <c r="O4" t="n">
         <v>276187.7243048018</v>
       </c>
       <c r="P4" t="n">
-        <v>276187.7243048018</v>
+        <v>276187.7243048019</v>
       </c>
     </row>
     <row r="5">
@@ -26479,22 +26479,22 @@
         <v>50686.79693735616</v>
       </c>
       <c r="F5" t="n">
-        <v>50686.79693735618</v>
+        <v>50686.79693735616</v>
       </c>
       <c r="G5" t="n">
-        <v>56820.80827193491</v>
+        <v>56820.80827193493</v>
       </c>
       <c r="H5" t="n">
         <v>56820.80827193491</v>
       </c>
       <c r="I5" t="n">
-        <v>56820.80827193493</v>
+        <v>56820.80827193492</v>
       </c>
       <c r="J5" t="n">
         <v>64526.92496473953</v>
       </c>
       <c r="K5" t="n">
-        <v>64526.92496473952</v>
+        <v>64526.92496473954</v>
       </c>
       <c r="L5" t="n">
         <v>64060.55685810826</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37902.7195218498</v>
+        <v>37898.35094938266</v>
       </c>
       <c r="C6" t="n">
-        <v>37902.71952184969</v>
+        <v>37898.35094938272</v>
       </c>
       <c r="D6" t="n">
-        <v>35298.49492566489</v>
+        <v>35298.49492566483</v>
       </c>
       <c r="E6" t="n">
-        <v>-235949.1550020518</v>
+        <v>-236197.182444221</v>
       </c>
       <c r="F6" t="n">
-        <v>130617.9155054851</v>
+        <v>130369.8880633159</v>
       </c>
       <c r="G6" t="n">
-        <v>69194.69593018317</v>
+        <v>69194.69593018305</v>
       </c>
       <c r="H6" t="n">
-        <v>127565.9037197727</v>
+        <v>127565.9037197728</v>
       </c>
       <c r="I6" t="n">
-        <v>127565.9037197723</v>
+        <v>127565.9037197724</v>
       </c>
       <c r="J6" t="n">
-        <v>43104.88989224518</v>
+        <v>43104.88989224617</v>
       </c>
       <c r="K6" t="n">
-        <v>118823.1219745313</v>
+        <v>118823.1219745312</v>
       </c>
       <c r="L6" t="n">
-        <v>58510.34662048233</v>
+        <v>58510.34662048228</v>
       </c>
       <c r="M6" t="n">
-        <v>-29989.45277263399</v>
+        <v>-29989.45277263422</v>
       </c>
       <c r="N6" t="n">
-        <v>127565.9037197725</v>
+        <v>127565.9037197724</v>
       </c>
       <c r="O6" t="n">
-        <v>103600.6270616948</v>
+        <v>103600.627061695</v>
       </c>
       <c r="P6" t="n">
-        <v>127565.9037197722</v>
+        <v>127565.9037197724</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="F2" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="G2" t="n">
         <v>154.3078039012071</v>
@@ -26713,7 +26713,7 @@
         <v>102.9206055595837</v>
       </c>
       <c r="L2" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="M2" t="n">
         <v>154.3078039012072</v>
@@ -26722,10 +26722,10 @@
         <v>154.3078039012072</v>
       </c>
       <c r="O2" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="P2" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
     </row>
     <row r="3">
@@ -26759,10 +26759,10 @@
         <v>128.8534128675817</v>
       </c>
       <c r="J3" t="n">
+        <v>128.8534128675817</v>
+      </c>
+      <c r="K3" t="n">
         <v>128.8534128675818</v>
-      </c>
-      <c r="K3" t="n">
-        <v>128.8534128675817</v>
       </c>
       <c r="L3" t="n">
         <v>128.8534128675817</v>
@@ -26796,28 +26796,28 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>674.9885050205762</v>
+        <v>674.9885050205769</v>
       </c>
       <c r="F4" t="n">
-        <v>674.9885050205764</v>
+        <v>674.9885050205769</v>
       </c>
       <c r="G4" t="n">
-        <v>674.9885050205764</v>
+        <v>674.9885050205767</v>
       </c>
       <c r="H4" t="n">
         <v>674.9885050205764</v>
       </c>
       <c r="I4" t="n">
-        <v>674.9885050205767</v>
+        <v>674.9885050205764</v>
       </c>
       <c r="J4" t="n">
         <v>872.7876344644343</v>
       </c>
       <c r="K4" t="n">
-        <v>872.7876344644343</v>
+        <v>872.7876344644345</v>
       </c>
       <c r="L4" t="n">
-        <v>860.8446877840804</v>
+        <v>860.8446877840806</v>
       </c>
       <c r="M4" t="n">
         <v>674.9885050205764</v>
@@ -26826,10 +26826,10 @@
         <v>674.9885050205764</v>
       </c>
       <c r="O4" t="n">
-        <v>674.9885050205764</v>
+        <v>674.9885050205763</v>
       </c>
       <c r="P4" t="n">
-        <v>674.9885050205764</v>
+        <v>674.9885050205763</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>72.96400973698672</v>
+        <v>72.96400973698714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.95659582259694</v>
+        <v>29.95659582259646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.05388890212792</v>
+        <v>76.05388890212815</v>
       </c>
       <c r="M2" t="n">
-        <v>48.2973191764823</v>
+        <v>48.29731917648247</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.95659582259694</v>
+        <v>29.95659582259648</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>663.0455583402223</v>
+        <v>663.045558340223</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>197.7991294438576</v>
+        <v>197.7991294438579</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>477.1893755767184</v>
+        <v>477.1893755767188</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.96400973698672</v>
+        <v>72.96400973698714</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.95659582259694</v>
+        <v>29.95659582259646</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="M4" t="n">
-        <v>663.0455583402223</v>
+        <v>663.045558340223</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>357.1527784446948</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>398.0667321025775</v>
+        <v>399.4903313468757</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S8" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>211.5960093702432</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27932,7 +27932,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>149.5672885953991</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>125.5073039593362</v>
@@ -27941,7 +27941,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>122.8275126335687</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27950,7 +27950,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.24347953564978</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>139.3285454370332</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -28014,25 +28014,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>139.598227560161</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>139.9695766602386</v>
+        <v>139.9695766602387</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>139.0129017441268</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>155.2876044654746</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>47.51371951961512</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.20902125249397</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="C11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="D11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="E11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="F11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="G11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="H11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="I11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>57.19285561481079</v>
       </c>
       <c r="S11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="T11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="U11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="V11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="W11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="X11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="Y11" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="C13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="D13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="E13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="F13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="G13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="H13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="J13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="K13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="L13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="M13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="N13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="O13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="P13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="R13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="S13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="T13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="U13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="V13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="W13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="X13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.34379416422038</v>
+        <v>81.34379416422</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="C14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="D14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="E14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="F14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="G14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="H14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="I14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>57.19285561481079</v>
       </c>
       <c r="S14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="T14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="U14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="V14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="W14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="X14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="Y14" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="C16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="D16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="E16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="F16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="G16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="H16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="J16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="K16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="L16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="M16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="N16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="O16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="P16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="R16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="S16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="T16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="U16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="V16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="W16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="X16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.34379416422041</v>
+        <v>81.34379416422</v>
       </c>
     </row>
     <row r="17">
@@ -28773,7 +28773,7 @@
         <v>154.3078039012071</v>
       </c>
       <c r="T19" t="n">
-        <v>123.797648203454</v>
+        <v>154.3078039012071</v>
       </c>
       <c r="U19" t="n">
         <v>154.3078039012071</v>
@@ -28785,7 +28785,7 @@
         <v>154.3078039012071</v>
       </c>
       <c r="X19" t="n">
-        <v>154.3078039012071</v>
+        <v>123.797648203454</v>
       </c>
       <c r="Y19" t="n">
         <v>154.3078039012071</v>
@@ -28980,7 +28980,7 @@
         <v>135.7733567440702</v>
       </c>
       <c r="J22" t="n">
-        <v>43.02891223486765</v>
+        <v>12.51875653711455</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>18.69510258984301</v>
       </c>
       <c r="R22" t="n">
-        <v>125.7638222664282</v>
+        <v>137.5788753743384</v>
       </c>
       <c r="S22" t="n">
         <v>154.3078039012071</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>154.3078039012072</v>
+        <v>123.7976482034531</v>
       </c>
       <c r="H25" t="n">
         <v>154.3078039012072</v>
@@ -29217,7 +29217,7 @@
         <v>135.7733567440702</v>
       </c>
       <c r="J25" t="n">
-        <v>12.51875653711428</v>
+        <v>43.02891223486765</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29305,7 +29305,7 @@
         <v>102.9206055595837</v>
       </c>
       <c r="M26" t="n">
-        <v>102.9206055595837</v>
+        <v>17.03264489563901</v>
       </c>
       <c r="N26" t="n">
         <v>102.9206055595837</v>
@@ -29314,7 +29314,7 @@
         <v>102.9206055595837</v>
       </c>
       <c r="P26" t="n">
-        <v>17.03264489563827</v>
+        <v>102.9206055595837</v>
       </c>
       <c r="Q26" t="n">
         <v>102.9206055595837</v>
@@ -29472,7 +29472,7 @@
         <v>102.9206055595837</v>
       </c>
       <c r="P28" t="n">
-        <v>102.9206055595837</v>
+        <v>102.920605559584</v>
       </c>
       <c r="Q28" t="n">
         <v>102.9206055595837</v>
@@ -29542,7 +29542,7 @@
         <v>102.9206055595837</v>
       </c>
       <c r="M29" t="n">
-        <v>17.03264489563924</v>
+        <v>17.03264489563941</v>
       </c>
       <c r="N29" t="n">
         <v>102.9206055595837</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="C32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="D32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="E32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="F32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="G32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="H32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="I32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="J32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="K32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="L32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="M32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="P32" t="n">
-        <v>51.03485287803551</v>
+        <v>99.85248198795131</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="R32" t="n">
-        <v>106.0104847247249</v>
+        <v>57.19285561481079</v>
       </c>
       <c r="S32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="T32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="U32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="V32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="W32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="X32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="C34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="D34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="E34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="F34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="G34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="H34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="I34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="J34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="K34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="L34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="M34" t="n">
-        <v>30.84959175431635</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="N34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="O34" t="n">
-        <v>106.0104847247249</v>
+        <v>30.84959175431996</v>
       </c>
       <c r="P34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="R34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="S34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="T34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="U34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="V34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="W34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="X34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.0104847247249</v>
+        <v>106.0104847247247</v>
       </c>
     </row>
     <row r="35">
@@ -30198,7 +30198,7 @@
         <v>154.3078039012072</v>
       </c>
       <c r="U37" t="n">
-        <v>123.7976482034537</v>
+        <v>154.3078039012072</v>
       </c>
       <c r="V37" t="n">
         <v>154.3078039012072</v>
@@ -30207,7 +30207,7 @@
         <v>154.3078039012072</v>
       </c>
       <c r="X37" t="n">
-        <v>154.3078039012072</v>
+        <v>123.7976482034538</v>
       </c>
       <c r="Y37" t="n">
         <v>154.3078039012072</v>
@@ -30381,7 +30381,7 @@
         <v>154.3078039012072</v>
       </c>
       <c r="C40" t="n">
-        <v>154.3078039012072</v>
+        <v>123.7976482034531</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>123.7976482034538</v>
+        <v>154.3078039012072</v>
       </c>
       <c r="H40" t="n">
         <v>154.3078039012072</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="C41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="D41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="E41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="F41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="G41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="H41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="I41" t="n">
         <v>151.1186903225786</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>57.19285561481079</v>
       </c>
       <c r="S41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="T41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="U41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="V41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="W41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="X41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="Y41" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="C43" t="n">
-        <v>154.3078039012072</v>
+        <v>123.7976482034529</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="H43" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="I43" t="n">
         <v>135.7733567440702</v>
@@ -30666,25 +30666,25 @@
         <v>137.5788753743384</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7976482034537</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="T43" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="U43" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="V43" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="W43" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="X43" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="C44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="D44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="E44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="F44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="G44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="H44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="I44" t="n">
         <v>151.1186903225786</v>
@@ -30745,25 +30745,25 @@
         <v>57.19285561481079</v>
       </c>
       <c r="S44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="T44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="U44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="V44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="W44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="X44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="Y44" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
     </row>
     <row r="45">
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="C46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>121.0310185427605</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="H46" t="n">
-        <v>142.4927507932968</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="I46" t="n">
         <v>135.7733567440702</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>18.69510258984301</v>
       </c>
       <c r="R46" t="n">
         <v>137.5788753743384</v>
       </c>
       <c r="S46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="T46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="U46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="V46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="W46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="X46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.3078039012072</v>
+        <v>154.3078039012073</v>
       </c>
     </row>
   </sheetData>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.518003669819424</v>
+        <v>0.5180036698194236</v>
       </c>
       <c r="H26" t="n">
-        <v>5.305005083538178</v>
+        <v>5.305005083538173</v>
       </c>
       <c r="I26" t="n">
-        <v>19.97033648071336</v>
+        <v>19.97033648071335</v>
       </c>
       <c r="J26" t="n">
-        <v>43.96491397133638</v>
+        <v>43.96491397133634</v>
       </c>
       <c r="K26" t="n">
-        <v>65.89200931479262</v>
+        <v>65.89200931479256</v>
       </c>
       <c r="L26" t="n">
-        <v>81.74486412502883</v>
+        <v>81.74486412502876</v>
       </c>
       <c r="M26" t="n">
-        <v>90.95691188818</v>
+        <v>90.95691188817993</v>
       </c>
       <c r="N26" t="n">
-        <v>92.42868981505445</v>
+        <v>92.42868981505437</v>
       </c>
       <c r="O26" t="n">
-        <v>87.27779082328755</v>
+        <v>87.27779082328748</v>
       </c>
       <c r="P26" t="n">
-        <v>74.48957522462051</v>
+        <v>74.48957522462044</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.93856879921236</v>
+        <v>55.93856879921231</v>
       </c>
       <c r="R26" t="n">
-        <v>32.53904802429442</v>
+        <v>32.5390480242944</v>
       </c>
       <c r="S26" t="n">
-        <v>11.80400862601014</v>
+        <v>11.80400862601013</v>
       </c>
       <c r="T26" t="n">
-        <v>2.26756106463453</v>
+        <v>2.267561064634528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04144029358555391</v>
+        <v>0.04144029358555388</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2771563974887609</v>
+        <v>0.2771563974887606</v>
       </c>
       <c r="H27" t="n">
-        <v>2.676747312588823</v>
+        <v>2.67674731258882</v>
       </c>
       <c r="I27" t="n">
-        <v>9.542446141608655</v>
+        <v>9.542446141608647</v>
       </c>
       <c r="J27" t="n">
-        <v>26.18520157151491</v>
+        <v>26.18520157151489</v>
       </c>
       <c r="K27" t="n">
-        <v>44.75468020326189</v>
+        <v>44.75468020326185</v>
       </c>
       <c r="L27" t="n">
-        <v>60.17819060386451</v>
+        <v>60.17819060386446</v>
       </c>
       <c r="M27" t="n">
-        <v>70.22511001283209</v>
+        <v>70.22511001283202</v>
       </c>
       <c r="N27" t="n">
-        <v>72.08375971353523</v>
+        <v>72.08375971353517</v>
       </c>
       <c r="O27" t="n">
-        <v>65.9425574323369</v>
+        <v>65.94255743233684</v>
       </c>
       <c r="P27" t="n">
-        <v>52.92471593800734</v>
+        <v>52.9247159380073</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.37877101979341</v>
+        <v>35.37877101979338</v>
       </c>
       <c r="R27" t="n">
-        <v>17.20800860899518</v>
+        <v>17.20800860899516</v>
       </c>
       <c r="S27" t="n">
-        <v>5.14805852353027</v>
+        <v>5.148058523530266</v>
       </c>
       <c r="T27" t="n">
-        <v>1.117134777597242</v>
+        <v>1.117134777597241</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01823397351899744</v>
+        <v>0.01823397351899742</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2323586133677705</v>
+        <v>0.2323586133677703</v>
       </c>
       <c r="H28" t="n">
-        <v>2.065879307942543</v>
+        <v>2.065879307942541</v>
       </c>
       <c r="I28" t="n">
-        <v>6.987657209278045</v>
+        <v>6.987657209278039</v>
       </c>
       <c r="J28" t="n">
-        <v>16.42775396510137</v>
+        <v>16.42775396510136</v>
       </c>
       <c r="K28" t="n">
-        <v>26.99584617127369</v>
+        <v>26.99584617127367</v>
       </c>
       <c r="L28" t="n">
-        <v>34.54538875469563</v>
+        <v>34.54538875469559</v>
       </c>
       <c r="M28" t="n">
-        <v>36.42326882091333</v>
+        <v>36.42326882091329</v>
       </c>
       <c r="N28" t="n">
-        <v>35.55720489836076</v>
+        <v>35.55720489836072</v>
       </c>
       <c r="O28" t="n">
-        <v>32.84283382401906</v>
+        <v>32.84283382401903</v>
       </c>
       <c r="P28" t="n">
-        <v>28.10271811131652</v>
+        <v>28.10271811131649</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.45686534300485</v>
+        <v>19.45686534300484</v>
       </c>
       <c r="R28" t="n">
         <v>10.4476881974272</v>
       </c>
       <c r="S28" t="n">
-        <v>4.049376925691053</v>
+        <v>4.04937692569105</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9928049843895645</v>
+        <v>0.9928049843895637</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01267410618369659</v>
+        <v>0.01267410618369657</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5180036698194236</v>
+        <v>0.518003669819424</v>
       </c>
       <c r="H29" t="n">
-        <v>5.305005083538173</v>
+        <v>5.305005083538178</v>
       </c>
       <c r="I29" t="n">
-        <v>19.97033648071335</v>
+        <v>19.97033648071336</v>
       </c>
       <c r="J29" t="n">
-        <v>43.96491397133634</v>
+        <v>43.96491397133638</v>
       </c>
       <c r="K29" t="n">
-        <v>65.89200931479256</v>
+        <v>65.89200931479262</v>
       </c>
       <c r="L29" t="n">
-        <v>81.74486412502876</v>
+        <v>81.74486412502883</v>
       </c>
       <c r="M29" t="n">
-        <v>90.95691188817993</v>
+        <v>90.95691188818</v>
       </c>
       <c r="N29" t="n">
-        <v>92.42868981505437</v>
+        <v>92.42868981505445</v>
       </c>
       <c r="O29" t="n">
-        <v>87.27779082328748</v>
+        <v>87.27779082328755</v>
       </c>
       <c r="P29" t="n">
-        <v>74.48957522462044</v>
+        <v>74.48957522462051</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.93856879921231</v>
+        <v>55.93856879921236</v>
       </c>
       <c r="R29" t="n">
-        <v>32.5390480242944</v>
+        <v>32.53904802429442</v>
       </c>
       <c r="S29" t="n">
-        <v>11.80400862601013</v>
+        <v>11.80400862601014</v>
       </c>
       <c r="T29" t="n">
-        <v>2.267561064634528</v>
+        <v>2.26756106463453</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04144029358555388</v>
+        <v>0.04144029358555391</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2771563974887606</v>
+        <v>0.2771563974887609</v>
       </c>
       <c r="H30" t="n">
-        <v>2.67674731258882</v>
+        <v>2.676747312588823</v>
       </c>
       <c r="I30" t="n">
-        <v>9.542446141608647</v>
+        <v>9.542446141608655</v>
       </c>
       <c r="J30" t="n">
-        <v>26.18520157151489</v>
+        <v>26.18520157151491</v>
       </c>
       <c r="K30" t="n">
-        <v>44.75468020326185</v>
+        <v>44.75468020326189</v>
       </c>
       <c r="L30" t="n">
-        <v>60.17819060386446</v>
+        <v>60.17819060386451</v>
       </c>
       <c r="M30" t="n">
-        <v>70.22511001283202</v>
+        <v>70.22511001283209</v>
       </c>
       <c r="N30" t="n">
-        <v>72.08375971353517</v>
+        <v>72.08375971353523</v>
       </c>
       <c r="O30" t="n">
-        <v>65.94255743233684</v>
+        <v>65.9425574323369</v>
       </c>
       <c r="P30" t="n">
-        <v>52.9247159380073</v>
+        <v>52.92471593800734</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.37877101979338</v>
+        <v>35.37877101979341</v>
       </c>
       <c r="R30" t="n">
-        <v>17.20800860899516</v>
+        <v>17.20800860899518</v>
       </c>
       <c r="S30" t="n">
-        <v>5.148058523530266</v>
+        <v>5.14805852353027</v>
       </c>
       <c r="T30" t="n">
-        <v>1.117134777597241</v>
+        <v>1.117134777597242</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01823397351899742</v>
+        <v>0.01823397351899744</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2323586133677703</v>
+        <v>0.2323586133677705</v>
       </c>
       <c r="H31" t="n">
-        <v>2.065879307942541</v>
+        <v>2.065879307942543</v>
       </c>
       <c r="I31" t="n">
-        <v>6.987657209278039</v>
+        <v>6.987657209278045</v>
       </c>
       <c r="J31" t="n">
-        <v>16.42775396510136</v>
+        <v>16.42775396510137</v>
       </c>
       <c r="K31" t="n">
-        <v>26.99584617127367</v>
+        <v>26.99584617127369</v>
       </c>
       <c r="L31" t="n">
-        <v>34.54538875469559</v>
+        <v>34.54538875469563</v>
       </c>
       <c r="M31" t="n">
-        <v>36.42326882091329</v>
+        <v>36.42326882091333</v>
       </c>
       <c r="N31" t="n">
-        <v>35.55720489836072</v>
+        <v>35.55720489836076</v>
       </c>
       <c r="O31" t="n">
-        <v>32.84283382401903</v>
+        <v>32.84283382401906</v>
       </c>
       <c r="P31" t="n">
-        <v>28.10271811131649</v>
+        <v>28.10271811131652</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.45686534300484</v>
+        <v>19.45686534300485</v>
       </c>
       <c r="R31" t="n">
         <v>10.4476881974272</v>
       </c>
       <c r="S31" t="n">
-        <v>4.04937692569105</v>
+        <v>4.049376925691053</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9928049843895637</v>
+        <v>0.9928049843895645</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01267410618369657</v>
+        <v>0.01267410618369659</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M8" t="n">
-        <v>11.46040338013756</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>11.46040338013756</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11.94294668035388</v>
       </c>
       <c r="O9" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="P9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M10" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="N10" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>11.94294668035388</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.6907162670987</v>
+        <v>116.6907162670996</v>
       </c>
       <c r="K11" t="n">
         <v>308.45804168326</v>
@@ -35419,7 +35419,7 @@
         <v>488.1681909317031</v>
       </c>
       <c r="N11" t="n">
-        <v>474.5815773784036</v>
+        <v>474.5815773784055</v>
       </c>
       <c r="O11" t="n">
         <v>395.3632296847359</v>
@@ -35489,16 +35489,16 @@
         <v>87.04797584737969</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>276.5633191529474</v>
       </c>
       <c r="L12" t="n">
         <v>429.6952059272136</v>
       </c>
       <c r="M12" t="n">
-        <v>560.1577903261921</v>
+        <v>110.6275500305926</v>
       </c>
       <c r="N12" t="n">
-        <v>415.5467841497941</v>
+        <v>588.5137052924464</v>
       </c>
       <c r="O12" t="n">
         <v>462.1041238809741</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.31488192935274</v>
+        <v>38.31488192935235</v>
       </c>
       <c r="K13" t="n">
-        <v>142.2832643199824</v>
+        <v>142.283264319982</v>
       </c>
       <c r="L13" t="n">
-        <v>217.5124954444306</v>
+        <v>217.5124954444302</v>
       </c>
       <c r="M13" t="n">
-        <v>236.9524227099839</v>
+        <v>236.9524227099835</v>
       </c>
       <c r="N13" t="n">
-        <v>236.5195260823795</v>
+        <v>236.5195260823791</v>
       </c>
       <c r="O13" t="n">
-        <v>213.6448567717644</v>
+        <v>213.644856771764</v>
       </c>
       <c r="P13" t="n">
-        <v>173.0510412938579</v>
+        <v>173.0510412938575</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.64869157437737</v>
+        <v>62.64869157437698</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>304.9510867963913</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.3246836340982</v>
+        <v>151.3246836341002</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.04797584737969</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>276.5633191529474</v>
@@ -35732,10 +35732,10 @@
         <v>429.6952059272136</v>
       </c>
       <c r="M15" t="n">
-        <v>110.6275500305927</v>
+        <v>560.1577903261921</v>
       </c>
       <c r="N15" t="n">
-        <v>588.5137052924464</v>
+        <v>226.0314408442268</v>
       </c>
       <c r="O15" t="n">
         <v>462.1041238809741</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.31488192935277</v>
+        <v>38.31488192935235</v>
       </c>
       <c r="K16" t="n">
-        <v>142.2832643199824</v>
+        <v>142.283264319982</v>
       </c>
       <c r="L16" t="n">
-        <v>217.5124954444307</v>
+        <v>217.5124954444302</v>
       </c>
       <c r="M16" t="n">
-        <v>236.9524227099839</v>
+        <v>236.9524227099835</v>
       </c>
       <c r="N16" t="n">
-        <v>236.5195260823795</v>
+        <v>236.5195260823791</v>
       </c>
       <c r="O16" t="n">
-        <v>213.6448567717644</v>
+        <v>213.644856771764</v>
       </c>
       <c r="P16" t="n">
-        <v>173.0510412938579</v>
+        <v>173.0510412938575</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.64869157437739</v>
+        <v>62.64869157437698</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>433.1442308774997</v>
       </c>
       <c r="M17" t="n">
-        <v>488.1681909317031</v>
+        <v>488.168190931704</v>
       </c>
       <c r="N17" t="n">
         <v>474.5815773784036</v>
@@ -36121,7 +36121,7 @@
         <v>116.6907162670996</v>
       </c>
       <c r="K20" t="n">
-        <v>308.4580416832599</v>
+        <v>308.45804168326</v>
       </c>
       <c r="L20" t="n">
         <v>433.1442308774997</v>
@@ -36130,7 +36130,7 @@
         <v>488.1681909317031</v>
       </c>
       <c r="N20" t="n">
-        <v>474.5815773784036</v>
+        <v>474.5815773784037</v>
       </c>
       <c r="O20" t="n">
         <v>395.3632296847359</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87.04797584737969</v>
       </c>
       <c r="K21" t="n">
         <v>276.5633191529474</v>
@@ -36209,16 +36209,16 @@
         <v>560.1577903261921</v>
       </c>
       <c r="N21" t="n">
-        <v>588.5137052924464</v>
+        <v>333.7275186283514</v>
       </c>
       <c r="O21" t="n">
-        <v>99.62185943275453</v>
+        <v>462.1041238809741</v>
       </c>
       <c r="P21" t="n">
         <v>358.0721091457823</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.7440536315047</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>87.04797584737969</v>
       </c>
       <c r="K24" t="n">
         <v>276.5633191529474</v>
@@ -36449,10 +36449,10 @@
         <v>588.5137052924464</v>
       </c>
       <c r="O24" t="n">
-        <v>99.62185943275453</v>
+        <v>370.6459927311574</v>
       </c>
       <c r="P24" t="n">
-        <v>358.0721091457823</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>194.7440536315047</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.6113218266834</v>
+        <v>219.6113218266833</v>
       </c>
       <c r="K26" t="n">
-        <v>411.3786472428438</v>
+        <v>411.3786472428437</v>
       </c>
       <c r="L26" t="n">
-        <v>536.0648364370835</v>
+        <v>536.0648364370834</v>
       </c>
       <c r="M26" t="n">
-        <v>591.0887964912869</v>
+        <v>505.2008358273421</v>
       </c>
       <c r="N26" t="n">
-        <v>577.5021829379874</v>
+        <v>577.5021829379873</v>
       </c>
       <c r="O26" t="n">
-        <v>498.2838352443197</v>
+        <v>498.2838352443196</v>
       </c>
       <c r="P26" t="n">
-        <v>321.9837316920297</v>
+        <v>407.871692355975</v>
       </c>
       <c r="Q26" t="n">
         <v>254.2452891936819</v>
       </c>
       <c r="R26" t="n">
-        <v>45.72774994477296</v>
+        <v>45.72774994477289</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>87.04797584737969</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>276.5633191529474</v>
       </c>
       <c r="L27" t="n">
-        <v>343.7762606319413</v>
+        <v>338.2370747773966</v>
       </c>
       <c r="M27" t="n">
         <v>560.1577903261921</v>
@@ -36686,13 +36686,13 @@
         <v>588.5137052924464</v>
       </c>
       <c r="O27" t="n">
-        <v>462.1041238809742</v>
+        <v>462.1041238809741</v>
       </c>
       <c r="P27" t="n">
-        <v>358.0721091457823</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.7440536315048</v>
+        <v>194.7440536315047</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.89169332471609</v>
+        <v>59.89169332471603</v>
       </c>
       <c r="K28" t="n">
         <v>163.8600757153457</v>
       </c>
       <c r="L28" t="n">
-        <v>239.089306839794</v>
+        <v>239.0893068397939</v>
       </c>
       <c r="M28" t="n">
-        <v>258.5292341053473</v>
+        <v>258.5292341053472</v>
       </c>
       <c r="N28" t="n">
-        <v>258.0963374777428</v>
+        <v>258.0963374777427</v>
       </c>
       <c r="O28" t="n">
         <v>235.2216681671277</v>
       </c>
       <c r="P28" t="n">
-        <v>194.6278526892212</v>
+        <v>194.6278526892215</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.22550296974072</v>
+        <v>84.22550296974066</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.6113218266833</v>
+        <v>219.6113218266834</v>
       </c>
       <c r="K29" t="n">
         <v>411.3786472428437</v>
       </c>
       <c r="L29" t="n">
-        <v>536.0648364370834</v>
+        <v>536.0648364370835</v>
       </c>
       <c r="M29" t="n">
-        <v>505.2008358273424</v>
+        <v>505.2008358273426</v>
       </c>
       <c r="N29" t="n">
-        <v>577.5021829379872</v>
+        <v>577.5021829379874</v>
       </c>
       <c r="O29" t="n">
-        <v>498.2838352443196</v>
+        <v>498.2838352443197</v>
       </c>
       <c r="P29" t="n">
-        <v>407.871692355975</v>
+        <v>407.8716923559751</v>
       </c>
       <c r="Q29" t="n">
-        <v>254.2452891936818</v>
+        <v>254.2452891936819</v>
       </c>
       <c r="R29" t="n">
-        <v>45.72774994477287</v>
+        <v>45.72774994477292</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.04797584737969</v>
+        <v>87.0479758473797</v>
       </c>
       <c r="K30" t="n">
         <v>276.5633191529474</v>
@@ -36917,19 +36917,19 @@
         <v>429.6952059272136</v>
       </c>
       <c r="M30" t="n">
-        <v>560.1577903261921</v>
+        <v>110.6275500305927</v>
       </c>
       <c r="N30" t="n">
-        <v>138.9834649968469</v>
+        <v>588.5137052924464</v>
       </c>
       <c r="O30" t="n">
-        <v>462.1041238809741</v>
+        <v>462.1041238809742</v>
       </c>
       <c r="P30" t="n">
         <v>358.0721091457823</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.7440536315047</v>
+        <v>194.7440536315048</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.89169332471602</v>
+        <v>59.89169332471604</v>
       </c>
       <c r="K31" t="n">
-        <v>163.8600757153456</v>
+        <v>163.8600757153457</v>
       </c>
       <c r="L31" t="n">
         <v>239.0893068397939</v>
       </c>
       <c r="M31" t="n">
-        <v>258.5292341053472</v>
+        <v>258.5292341053473</v>
       </c>
       <c r="N31" t="n">
-        <v>258.0963374777427</v>
+        <v>258.0963374777428</v>
       </c>
       <c r="O31" t="n">
-        <v>235.2216681671276</v>
+        <v>235.2216681671277</v>
       </c>
       <c r="P31" t="n">
         <v>194.6278526892212</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.22550296974065</v>
+        <v>84.22550296974067</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>222.7012009918245</v>
+        <v>222.7012009918243</v>
       </c>
       <c r="K32" t="n">
-        <v>414.4685264079849</v>
+        <v>414.4685264079847</v>
       </c>
       <c r="L32" t="n">
-        <v>539.1547156022245</v>
+        <v>539.1547156022243</v>
       </c>
       <c r="M32" t="n">
-        <v>594.1786756564279</v>
+        <v>594.1786756564278</v>
       </c>
       <c r="N32" t="n">
         <v>474.5815773784036</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3737144094608</v>
+        <v>501.3737144094606</v>
       </c>
       <c r="P32" t="n">
-        <v>355.9859396744268</v>
+        <v>404.8035687843426</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.335168358823</v>
+        <v>257.3351683588228</v>
       </c>
       <c r="R32" t="n">
-        <v>48.81762910991407</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.04797584737969</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>276.5633191529474</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>429.6952059272136</v>
@@ -37157,10 +37157,10 @@
         <v>560.1577903261921</v>
       </c>
       <c r="N33" t="n">
-        <v>138.9834649968473</v>
+        <v>588.5137052924464</v>
       </c>
       <c r="O33" t="n">
-        <v>462.1041238809741</v>
+        <v>376.185178585702</v>
       </c>
       <c r="P33" t="n">
         <v>358.0721091457823</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.98157248985721</v>
+        <v>62.98157248985704</v>
       </c>
       <c r="K34" t="n">
-        <v>166.9499548804868</v>
+        <v>166.9499548804866</v>
       </c>
       <c r="L34" t="n">
-        <v>242.1791860049351</v>
+        <v>242.1791860049349</v>
       </c>
       <c r="M34" t="n">
-        <v>186.4582203000799</v>
+        <v>261.6191132704882</v>
       </c>
       <c r="N34" t="n">
-        <v>261.1862166428839</v>
+        <v>261.1862166428838</v>
       </c>
       <c r="O34" t="n">
-        <v>238.3115473322688</v>
+        <v>163.1506543618639</v>
       </c>
       <c r="P34" t="n">
-        <v>197.7177318543624</v>
+        <v>197.7177318543622</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.31538213488184</v>
+        <v>87.31538213488167</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.04797584737969</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>276.5633191529474</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>429.6952059272136</v>
@@ -37397,13 +37397,13 @@
         <v>588.5137052924464</v>
       </c>
       <c r="O36" t="n">
-        <v>12.57388358537465</v>
+        <v>462.1041238809741</v>
       </c>
       <c r="P36" t="n">
         <v>358.0721091457823</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.7440536315047</v>
+        <v>108.8251083362322</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>474.5815773784036</v>
       </c>
       <c r="O38" t="n">
-        <v>395.3632296847359</v>
+        <v>395.3632296847358</v>
       </c>
       <c r="P38" t="n">
         <v>304.9510867963913</v>
@@ -37622,7 +37622,7 @@
         <v>87.04797584737969</v>
       </c>
       <c r="K39" t="n">
-        <v>276.5633191529474</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>429.6952059272136</v>
@@ -37631,7 +37631,7 @@
         <v>560.1577903261921</v>
       </c>
       <c r="N39" t="n">
-        <v>138.9834649968469</v>
+        <v>588.5137052924464</v>
       </c>
       <c r="O39" t="n">
         <v>462.1041238809741</v>
@@ -37640,7 +37640,7 @@
         <v>358.0721091457823</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.7440536315047</v>
+        <v>21.77713248885231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>116.6907162670996</v>
       </c>
       <c r="K41" t="n">
-        <v>308.45804168326</v>
+        <v>308.4580416832595</v>
       </c>
       <c r="L41" t="n">
         <v>433.1442308774997</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>87.04797584737969</v>
       </c>
       <c r="K42" t="n">
         <v>276.5633191529474</v>
@@ -37865,10 +37865,10 @@
         <v>429.6952059272136</v>
       </c>
       <c r="M42" t="n">
-        <v>392.4195795094769</v>
+        <v>560.1577903261921</v>
       </c>
       <c r="N42" t="n">
-        <v>588.5137052924464</v>
+        <v>138.9834649968469</v>
       </c>
       <c r="O42" t="n">
         <v>462.1041238809741</v>
@@ -37877,7 +37877,7 @@
         <v>358.0721091457823</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>194.7440536315047</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>304.9510867963913</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3246836340983</v>
+        <v>151.3246836340982</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>276.5633191529474</v>
       </c>
       <c r="L45" t="n">
-        <v>429.6952059272136</v>
+        <v>174.9090192631187</v>
       </c>
       <c r="M45" t="n">
         <v>560.1577903261921</v>
       </c>
       <c r="N45" t="n">
-        <v>138.9834649968469</v>
+        <v>588.5137052924464</v>
       </c>
       <c r="O45" t="n">
         <v>462.1041238809741</v>
@@ -38114,7 +38114,7 @@
         <v>358.0721091457823</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.7440536315047</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
